--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D45521-D0C8-440B-922A-48764D1B13BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-105" windowWidth="16110" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.2.文字コード" sheetId="12" r:id="rId1"/>
@@ -15,7 +16,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$73</definedName>
     <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$18</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -423,24 +435,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不要な文字化けを回避する為、外部システムからの入力禁則文字を定めエラーとして扱う。</t>
-  </si>
-  <si>
     <t>具体的には、以下のケースで、文字化けが発生することが考えられる。</t>
   </si>
   <si>
-    <t>上記ケースの対象となる文字について、業務処理における影響度を調査のうえ、禁則文字を決定する。</t>
-  </si>
-  <si>
     <t>特殊文字入力変換処理</t>
   </si>
   <si>
     <t>本システムのブラウザより、許容されない文字が入力された場合、特定文字へ変換後エラーを返す。</t>
   </si>
   <si>
-    <t>非許容文字としては、前述の禁則文字に加え、選定外拡張文字を指す。</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -468,10 +471,6 @@
     <t>接続先の変換パターンに応じた個別テーブルの用意を必要とする。</t>
   </si>
   <si>
-    <t>禁則文字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Java系の処理方式をとる場合、内部でUnicode変換が発生するので、コンバータが２箇所に跨るケースがある。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -481,10 +480,6 @@
   </si>
   <si>
     <t>・本システムと、周辺システムで異なるコンバータを使用する可能性がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>禁則文字、他システム非許容拡張文字の取り扱い</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -538,12 +533,27 @@
   <si>
     <t>・</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>禁止文字</t>
+  </si>
+  <si>
+    <t>不要な文字化けを回避する為、外部システムからの入力禁止文字を定めエラーとして扱う。</t>
+  </si>
+  <si>
+    <t>上記ケースの対象となる文字について、業務処理における影響度を調査のうえ、禁止文字を決定する。</t>
+  </si>
+  <si>
+    <t>禁止文字、他システム非許容拡張文字の取り扱い</t>
+  </si>
+  <si>
+    <t>非許容文字としては、前述の禁止文字に加え、選定外拡張文字を指す。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2442,6 +2452,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2478,273 +2524,237 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="226">
-    <cellStyle name="_x000c_ーセン_x000c_" xfId="7"/>
-    <cellStyle name="??????" xfId="8"/>
-    <cellStyle name="??_???? ?? ??? (2)" xfId="9"/>
-    <cellStyle name="?E°CE，°e1yAI" xfId="10"/>
-    <cellStyle name="_ペンディング管理一..." xfId="11"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="12"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="25"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="26"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="27"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="28"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="29"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="30"/>
-    <cellStyle name="AeE- [0]_Co´e0124" xfId="31"/>
-    <cellStyle name="AeE-_Co´e0124" xfId="32"/>
-    <cellStyle name="args.style" xfId="33"/>
-    <cellStyle name="AT，¶ [0]_Co´e0124" xfId="34"/>
-    <cellStyle name="AT，¶_Co´e0124" xfId="35"/>
-    <cellStyle name="BD標準" xfId="36"/>
-    <cellStyle name="C\AO_Co´e0124" xfId="37"/>
-    <cellStyle name="Calc Currency (0)" xfId="38"/>
-    <cellStyle name="Calc Currency (0) 2" xfId="39"/>
-    <cellStyle name="Calc Currency (2)" xfId="40"/>
-    <cellStyle name="Calc Percent (0)" xfId="41"/>
-    <cellStyle name="Calc Percent (1)" xfId="42"/>
-    <cellStyle name="Calc Percent (2)" xfId="43"/>
-    <cellStyle name="Calc Units (0)" xfId="44"/>
-    <cellStyle name="Calc Units (1)" xfId="45"/>
-    <cellStyle name="Calc Units (2)" xfId="46"/>
-    <cellStyle name="category" xfId="47"/>
-    <cellStyle name="ColumnAttributeAbovePrompt" xfId="48"/>
-    <cellStyle name="ColumnAttributePrompt" xfId="49"/>
-    <cellStyle name="ColumnAttributeValue" xfId="50"/>
-    <cellStyle name="ColumnHeadingPrompt" xfId="51"/>
-    <cellStyle name="ColumnHeadingValue" xfId="52"/>
-    <cellStyle name="Comma [0]_!!!GO" xfId="53"/>
-    <cellStyle name="Comma [00]" xfId="54"/>
-    <cellStyle name="Comma_!!!GO" xfId="55"/>
-    <cellStyle name="Comma0" xfId="56"/>
-    <cellStyle name="COMP定番表書式" xfId="57"/>
-    <cellStyle name="Copied" xfId="58"/>
-    <cellStyle name="Currency [0]_!!!GO" xfId="59"/>
-    <cellStyle name="Currency [00]" xfId="60"/>
-    <cellStyle name="Currency_!!!GO" xfId="61"/>
-    <cellStyle name="Currency0" xfId="62"/>
-    <cellStyle name="Date Short" xfId="63"/>
-    <cellStyle name="Enter Currency (0)" xfId="64"/>
-    <cellStyle name="Enter Currency (2)" xfId="65"/>
-    <cellStyle name="Enter Units (0)" xfId="66"/>
-    <cellStyle name="Enter Units (1)" xfId="67"/>
-    <cellStyle name="Enter Units (2)" xfId="68"/>
-    <cellStyle name="Entered" xfId="69"/>
-    <cellStyle name="entry" xfId="70"/>
-    <cellStyle name="Followed Hyperlink" xfId="71"/>
-    <cellStyle name="Grey" xfId="72"/>
-    <cellStyle name="Grey 2" xfId="73"/>
-    <cellStyle name="HEADER" xfId="74"/>
-    <cellStyle name="Header 1" xfId="75"/>
-    <cellStyle name="Header 2" xfId="76"/>
-    <cellStyle name="Header Center" xfId="77"/>
-    <cellStyle name="Header1" xfId="78"/>
-    <cellStyle name="Header2" xfId="79"/>
-    <cellStyle name="Heading 1" xfId="80"/>
-    <cellStyle name="Heading 1 2" xfId="81"/>
-    <cellStyle name="Heading 2" xfId="82"/>
-    <cellStyle name="HEADINGS" xfId="83"/>
-    <cellStyle name="HEADINGSTOP" xfId="84"/>
-    <cellStyle name="HP Logo" xfId="85"/>
-    <cellStyle name="Hyperlink" xfId="86"/>
-    <cellStyle name="IBM(401K)" xfId="87"/>
-    <cellStyle name="Input [yellow]" xfId="88"/>
-    <cellStyle name="Input [yellow] 2" xfId="89"/>
-    <cellStyle name="J401K" xfId="90"/>
-    <cellStyle name="LineItemPrompt" xfId="91"/>
-    <cellStyle name="LineItemValue" xfId="92"/>
-    <cellStyle name="Link Currency (0)" xfId="93"/>
-    <cellStyle name="Link Currency (2)" xfId="94"/>
-    <cellStyle name="Link Units (0)" xfId="95"/>
-    <cellStyle name="Link Units (1)" xfId="96"/>
-    <cellStyle name="Link Units (2)" xfId="97"/>
-    <cellStyle name="Millares [0]_BRASIL (2)" xfId="98"/>
-    <cellStyle name="Millares_5670-t123" xfId="99"/>
-    <cellStyle name="Milliers [0]_!!!GO" xfId="100"/>
-    <cellStyle name="Milliers_!!!GO" xfId="101"/>
-    <cellStyle name="Model" xfId="102"/>
-    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="103"/>
-    <cellStyle name="Moneda_5670-t123" xfId="104"/>
-    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="105"/>
-    <cellStyle name="Mon騁aire_!!!GO" xfId="106"/>
-    <cellStyle name="Normal - Style1" xfId="107"/>
-    <cellStyle name="Normal - Style1 2" xfId="108"/>
-    <cellStyle name="Normal_!!!GO" xfId="109"/>
-    <cellStyle name="Normale_LSCO0697" xfId="110"/>
-    <cellStyle name="nozawa" xfId="111"/>
-    <cellStyle name="Oasis" xfId="112"/>
-    <cellStyle name="OUTPUT AMOUNTS" xfId="113"/>
-    <cellStyle name="OUTPUT COLUMN HEADINGS" xfId="114"/>
-    <cellStyle name="OUTPUT LINE ITEMS" xfId="115"/>
-    <cellStyle name="OUTPUT REPORT HEADING" xfId="116"/>
-    <cellStyle name="OUTPUT REPORT TITLE" xfId="117"/>
-    <cellStyle name="per.style" xfId="118"/>
-    <cellStyle name="Percent [0]" xfId="119"/>
-    <cellStyle name="Percent [00]" xfId="120"/>
-    <cellStyle name="Percent [2]" xfId="121"/>
-    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="122"/>
-    <cellStyle name="PrePop Currency (0)" xfId="123"/>
-    <cellStyle name="PrePop Currency (2)" xfId="124"/>
-    <cellStyle name="PrePop Units (0)" xfId="125"/>
-    <cellStyle name="PrePop Units (1)" xfId="126"/>
-    <cellStyle name="PrePop Units (2)" xfId="127"/>
-    <cellStyle name="price" xfId="128"/>
-    <cellStyle name="pricing" xfId="129"/>
-    <cellStyle name="PSChar" xfId="130"/>
-    <cellStyle name="PSHeading" xfId="131"/>
-    <cellStyle name="regstoresfromspecstores" xfId="132"/>
-    <cellStyle name="ReportTitlePrompt" xfId="133"/>
-    <cellStyle name="ReportTitleValue" xfId="134"/>
-    <cellStyle name="revised" xfId="135"/>
-    <cellStyle name="RevList" xfId="136"/>
-    <cellStyle name="RowAcctAbovePrompt" xfId="137"/>
-    <cellStyle name="RowAcctSOBAbovePrompt" xfId="138"/>
-    <cellStyle name="RowAcctSOBValue" xfId="139"/>
-    <cellStyle name="RowAcctValue" xfId="140"/>
-    <cellStyle name="RowAttrAbovePrompt" xfId="141"/>
-    <cellStyle name="RowAttrValue" xfId="142"/>
-    <cellStyle name="RowColSetAbovePrompt" xfId="143"/>
-    <cellStyle name="RowColSetLeftPrompt" xfId="144"/>
-    <cellStyle name="RowColSetValue" xfId="145"/>
-    <cellStyle name="RowLeftPrompt" xfId="146"/>
-    <cellStyle name="SampleUsingFormatMask" xfId="147"/>
-    <cellStyle name="SampleWithNoFormatMask" xfId="148"/>
-    <cellStyle name="section" xfId="149"/>
-    <cellStyle name="SHADEDSTORES" xfId="150"/>
-    <cellStyle name="specstores" xfId="151"/>
-    <cellStyle name="subhead" xfId="152"/>
-    <cellStyle name="Subtotal" xfId="153"/>
-    <cellStyle name="Table Entry" xfId="154"/>
-    <cellStyle name="Table Heading" xfId="155"/>
-    <cellStyle name="Table Heading Center" xfId="156"/>
-    <cellStyle name="Table Medium" xfId="157"/>
-    <cellStyle name="Table Normal" xfId="158"/>
-    <cellStyle name="Table Small" xfId="159"/>
-    <cellStyle name="Table Small Bold" xfId="160"/>
-    <cellStyle name="Table Small Center" xfId="161"/>
-    <cellStyle name="Table Title" xfId="162"/>
-    <cellStyle name="Text Indent A" xfId="163"/>
-    <cellStyle name="Text Indent B" xfId="164"/>
-    <cellStyle name="Text Indent C" xfId="165"/>
-    <cellStyle name="title" xfId="166"/>
-    <cellStyle name="Total" xfId="167"/>
-    <cellStyle name="UploadThisRowValue" xfId="168"/>
-    <cellStyle name="あああ" xfId="169"/>
-    <cellStyle name="アクセント 1 2" xfId="170"/>
-    <cellStyle name="アクセント 2 2" xfId="171"/>
-    <cellStyle name="アクセント 3 2" xfId="172"/>
-    <cellStyle name="アクセント 4 2" xfId="173"/>
-    <cellStyle name="アクセント 5 2" xfId="174"/>
-    <cellStyle name="アクセント 6 2" xfId="175"/>
-    <cellStyle name="スタイル 1" xfId="176"/>
-    <cellStyle name="センター" xfId="177"/>
-    <cellStyle name="タイトル 2" xfId="178"/>
-    <cellStyle name="チェック セル 2" xfId="179"/>
-    <cellStyle name="どちらでもない 2" xfId="180"/>
-    <cellStyle name="パーセント 2" xfId="181"/>
-    <cellStyle name="ハイパーリンク 2" xfId="182"/>
-    <cellStyle name="メモ 2" xfId="183"/>
-    <cellStyle name="リンク セル 2" xfId="184"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="185"/>
-    <cellStyle name="悪い 2" xfId="186"/>
-    <cellStyle name="開発計画書スタイル" xfId="187"/>
-    <cellStyle name="計算 2" xfId="188"/>
-    <cellStyle name="警告文 2" xfId="189"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_DATA" xfId="190"/>
-    <cellStyle name="桁蟻唇Ｆ_DATA" xfId="191"/>
-    <cellStyle name="桁区切? [0.00]" xfId="192"/>
-    <cellStyle name="桁区切り 2" xfId="193"/>
-    <cellStyle name="見出し 1 2" xfId="194"/>
-    <cellStyle name="見出し 2 2" xfId="195"/>
-    <cellStyle name="見出し 3 2" xfId="196"/>
-    <cellStyle name="見出し 4 2" xfId="197"/>
-    <cellStyle name="集計 2" xfId="198"/>
-    <cellStyle name="出力 2" xfId="199"/>
-    <cellStyle name="常规_GATE_共通DB(マスタ)_20070212" xfId="200"/>
-    <cellStyle name="人月" xfId="201"/>
-    <cellStyle name="説明文 2" xfId="202"/>
-    <cellStyle name="脱浦 [0.00]_~0007176" xfId="203"/>
-    <cellStyle name="脱浦_~0007176" xfId="204"/>
-    <cellStyle name="通貨 2" xfId="205"/>
-    <cellStyle name="入力 2" xfId="206"/>
-    <cellStyle name="破線" xfId="207"/>
-    <cellStyle name="標?_Pacific Region P&amp;L" xfId="208"/>
+    <cellStyle name="_x000c_ーセン_x000c_" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="??????" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="??_???? ?? ??? (2)" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="?E°CE，°e1yAI" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_ペンディング管理一..." xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="AeE- [0]_Co´e0124" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="AeE-_Co´e0124" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="args.style" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="AT，¶ [0]_Co´e0124" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="AT，¶_Co´e0124" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="BD標準" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="C\AO_Co´e0124" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Currency (0) 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="category" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="ColumnAttributeAbovePrompt" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="ColumnAttributePrompt" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="ColumnAttributeValue" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="ColumnHeadingPrompt" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="ColumnHeadingValue" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma [0]_!!!GO" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma [00]" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma_!!!GO" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma0" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="COMP定番表書式" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Copied" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Currency [0]_!!!GO" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Currency [00]" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Currency_!!!GO" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Currency0" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Date Short" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Entered" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="entry" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Grey" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Grey 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="HEADER" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header 1" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header Center" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header1" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Heading 1" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Heading 1 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Heading 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="HEADINGS" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="HEADINGSTOP" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="HP Logo" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Hyperlink" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="IBM(401K)" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Input [yellow]" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Input [yellow] 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="J401K" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="LineItemPrompt" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="LineItemValue" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Link Units (0)" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Link Units (1)" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Link Units (2)" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Millares [0]_BRASIL (2)" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Millares_5670-t123" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Milliers [0]_!!!GO" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Milliers_!!!GO" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Model" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Moneda_5670-t123" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Mon騁aire_!!!GO" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal - Style1" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal_!!!GO" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normale_LSCO0697" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="nozawa" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Oasis" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="OUTPUT AMOUNTS" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="OUTPUT COLUMN HEADINGS" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="OUTPUT LINE ITEMS" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="OUTPUT REPORT HEADING" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="OUTPUT REPORT TITLE" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="per.style" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Percent [0]" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Percent [00]" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Percent [2]" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="price" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="pricing" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="PSChar" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="PSHeading" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="regstoresfromspecstores" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="ReportTitlePrompt" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="ReportTitleValue" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="revised" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="RevList" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="RowAcctAbovePrompt" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="RowAcctSOBAbovePrompt" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="RowAcctSOBValue" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="RowAcctValue" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="RowAttrAbovePrompt" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="RowAttrValue" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="RowColSetAbovePrompt" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="RowColSetLeftPrompt" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="RowColSetValue" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="RowLeftPrompt" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="SampleUsingFormatMask" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="SampleWithNoFormatMask" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="section" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="SHADEDSTORES" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="specstores" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="subhead" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Subtotal" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Table Entry" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Table Heading" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Table Heading Center" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Table Medium" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Table Normal" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Table Small" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Table Small Bold" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Table Small Center" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Table Title" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Text Indent A" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Text Indent B" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Text Indent C" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="title" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Total" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="UploadThisRowValue" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="あああ" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="スタイル 1" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="センター" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="タイトル 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="チェック セル 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="パーセント 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="メモ 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="リンク セル 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="悪い 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="開発計画書スタイル" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="計算 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="警告文 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_DATA" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_DATA" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="桁区切? [0.00]" xfId="192" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="桁区切り 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="見出し 1 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="見出し 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="見出し 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="見出し 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="集計 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="出力 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规_GATE_共通DB(マスタ)_20070212" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="人月" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="説明文 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="脱浦 [0.00]_~0007176" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="脱浦_~0007176" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="通貨 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="入力 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="破線" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="標?_Pacific Region P&amp;L" xfId="208" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="209"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準 3 2" xfId="210"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準 4" xfId="211"/>
-    <cellStyle name="標準 5" xfId="212"/>
-    <cellStyle name="標準 5 2" xfId="213"/>
-    <cellStyle name="標準 6" xfId="6"/>
-    <cellStyle name="標準 7" xfId="214"/>
-    <cellStyle name="標準 8" xfId="5"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
-    <cellStyle name="標準１" xfId="215"/>
-    <cellStyle name="標準TY" xfId="216"/>
-    <cellStyle name="表旨巧・・ハイパーリンク" xfId="217"/>
-    <cellStyle name="表題" xfId="218"/>
-    <cellStyle name="磨葬e義" xfId="219"/>
-    <cellStyle name="未定義" xfId="220"/>
-    <cellStyle name="良い 2" xfId="221"/>
-    <cellStyle name="爲敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="222"/>
-    <cellStyle name="捬䌠牵敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="223"/>
-    <cellStyle name="爱敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="224"/>
-    <cellStyle name="㠱䤭瑮牥敮⡴⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="225"/>
+    <cellStyle name="標準 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="標準 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="標準 4" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="標準 5" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="標準 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="標準 6" xfId="6" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="標準 7" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="標準 8" xfId="5" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="標準１" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="標準TY" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="表旨巧・・ハイパーリンク" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="表題" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="磨葬e義" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="未定義" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="良い 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="爲敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="捬䌠牵敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="爱敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="㠱䤭瑮牥敮⡴⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2752,12 +2762,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2799,7 +2812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2832,9 +2845,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,6 +2897,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3042,7 +3089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3064,43 +3111,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3109,43 +3156,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3154,39 +3201,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3306,14 +3353,14 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="61"/>
       <c r="R20" s="24" t="s">
         <v>16</v>
       </c>
@@ -3343,14 +3390,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="24" t="s">
         <v>32</v>
       </c>
@@ -3380,14 +3427,14 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
       <c r="R22" s="24" t="s">
         <v>23</v>
       </c>
@@ -3417,12 +3464,12 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -3450,14 +3497,14 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="75" t="s">
+      <c r="L24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="61"/>
       <c r="R24" s="24" t="s">
         <v>37</v>
       </c>
@@ -3487,14 +3534,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="24" t="s">
         <v>43</v>
       </c>
@@ -3524,14 +3571,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="24" t="s">
         <v>36</v>
       </c>
@@ -3561,14 +3608,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3598,14 +3645,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="24" t="s">
         <v>33</v>
       </c>
@@ -3635,14 +3682,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="24" t="s">
         <v>34</v>
       </c>
@@ -3672,14 +3719,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="24" t="s">
         <v>45</v>
       </c>
@@ -3737,7 +3784,7 @@
         <v>7.2.2.2.</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -3770,7 +3817,7 @@
     </row>
     <row r="33" spans="5:34" ht="14.1" customHeight="1">
       <c r="F33" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3803,7 +3850,7 @@
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
       <c r="F34" s="17" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -3867,7 +3914,7 @@
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
       <c r="F36" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -3900,7 +3947,7 @@
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
       <c r="F37" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -3933,7 +3980,7 @@
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
       <c r="F38" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -3997,7 +4044,7 @@
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
       <c r="F40" s="17" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -4065,7 +4112,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -4098,7 +4145,7 @@
     </row>
     <row r="43" spans="5:34" ht="14.1" customHeight="1">
       <c r="F43" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -4131,7 +4178,7 @@
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
       <c r="F44" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -4194,10 +4241,10 @@
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
       <c r="F46" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4229,7 +4276,7 @@
     </row>
     <row r="47" spans="5:34" ht="14.1" customHeight="1">
       <c r="G47" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4261,7 +4308,7 @@
     </row>
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
       <c r="G48" s="17" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4293,7 +4340,7 @@
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
       <c r="G49" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -4355,10 +4402,10 @@
     </row>
     <row r="51" spans="4:34" ht="14.1" customHeight="1">
       <c r="G51" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
@@ -4366,7 +4413,7 @@
       <c r="L51" s="35"/>
       <c r="M51" s="35"/>
       <c r="N51" s="34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
@@ -4394,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="39"/>
@@ -4402,7 +4449,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="39"/>
       <c r="N52" s="37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O52" s="39"/>
       <c r="P52" s="30"/>
@@ -4430,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I53" s="54"/>
       <c r="J53" s="42"/>
@@ -4438,7 +4485,7 @@
       <c r="L53" s="16"/>
       <c r="M53" s="42"/>
       <c r="N53" s="41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O53" s="42"/>
       <c r="P53" s="43"/>
@@ -4470,7 +4517,7 @@
       <c r="L54" s="47"/>
       <c r="M54" s="53"/>
       <c r="N54" s="55" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O54" s="31"/>
       <c r="P54" s="27"/>
@@ -4498,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -4506,10 +4553,10 @@
       <c r="L55" s="16"/>
       <c r="M55" s="40"/>
       <c r="N55" s="57" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O55" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P55" s="27"/>
       <c r="Q55" s="27"/>
@@ -4540,10 +4587,10 @@
       <c r="L56" s="52"/>
       <c r="M56" s="53"/>
       <c r="N56" s="58" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O56" s="45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P56" s="46"/>
       <c r="Q56" s="46"/>
@@ -4597,10 +4644,10 @@
     </row>
     <row r="58" spans="4:34" ht="14.1" customHeight="1">
       <c r="F58" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H58" s="31"/>
       <c r="I58" s="31"/>
@@ -4632,7 +4679,7 @@
     </row>
     <row r="59" spans="4:34" ht="14.1" customHeight="1">
       <c r="G59" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
@@ -4663,7 +4710,7 @@
     </row>
     <row r="60" spans="4:34" ht="14.1" customHeight="1">
       <c r="G60" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
@@ -4857,6 +4904,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L30:Q30"/>
     <mergeCell ref="L25:Q25"/>
     <mergeCell ref="E1:O1"/>
@@ -4871,18 +4926,10 @@
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L30">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>使用可能文字コード一覧</formula1>
     </dataValidation>
   </dataValidations>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D45521-D0C8-440B-922A-48764D1B13BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6940F6-33FB-422D-8B8C-806D930CB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,8 +13,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$73</definedName>
-    <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$64</definedName>
+    <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム内で使用する文字コード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -435,9 +431,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>具体的には、以下のケースで、文字化けが発生することが考えられる。</t>
-  </si>
-  <si>
     <t>特殊文字入力変換処理</t>
   </si>
   <si>
@@ -469,18 +462,6 @@
   </si>
   <si>
     <t>接続先の変換パターンに応じた個別テーブルの用意を必要とする。</t>
-  </si>
-  <si>
-    <t>Java系の処理方式をとる場合、内部でUnicode変換が発生するので、コンバータが２箇所に跨るケースがある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・コンバータ（エンコーディング表）によりコードポイントが異なる文字を処理するケース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・本システムと、周辺システムで異なるコンバータを使用する可能性がある。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>他システムとのファイル転送およびメッセージ連携での取引において、本システムで使用する文字集合と適用しないものについては、</t>
@@ -535,19 +516,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>禁止文字</t>
-  </si>
-  <si>
-    <t>不要な文字化けを回避する為、外部システムからの入力禁止文字を定めエラーとして扱う。</t>
-  </si>
-  <si>
-    <t>上記ケースの対象となる文字について、業務処理における影響度を調査のうえ、禁止文字を決定する。</t>
-  </si>
-  <si>
     <t>禁止文字、他システム非許容拡張文字の取り扱い</t>
   </si>
   <si>
     <t>非許容文字としては、前述の禁止文字に加え、選定外拡張文字を指す。</t>
+  </si>
+  <si>
+    <t>システム内で使用する文字種と文字コード</t>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、【使用可能文字種一覧】で定められた文字種のみを使用可能（使用許可文字種）とし、それ以外は禁止文字とする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="16">
+      <t>シヨウカノウモジシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2452,6 +2459,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2478,54 +2533,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3093,7 +3100,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3111,43 +3118,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="67"/>
+      <c r="R1" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3156,43 +3163,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3201,39 +3208,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="73"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3271,12 +3278,12 @@
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3298,108 +3305,77 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="5:34" ht="14.1" customHeight="1"/>
-    <row r="19" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F19" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F18" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="5:34" ht="14.1" customHeight="1"/>
+    <row r="20" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="26" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
-    </row>
-    <row r="20" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="23"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="5:34" ht="14.1" customHeight="1">
       <c r="F21" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="61"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="24" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -3419,24 +3395,24 @@
       <c r="AH21" s="23"/>
     </row>
     <row r="22" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+      <c r="F22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3456,21 +3432,25 @@
       <c r="AH22" s="23"/>
     </row>
     <row r="23" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F23" s="15" t="s">
-        <v>25</v>
+      <c r="F23" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="22"/>
+      <c r="L23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
@@ -3489,25 +3469,21 @@
       <c r="AH23" s="23"/>
     </row>
     <row r="24" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F24" s="28"/>
-      <c r="G24" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="F24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
@@ -3528,22 +3504,22 @@
     <row r="25" spans="5:34" ht="14.1" customHeight="1">
       <c r="F25" s="28"/>
       <c r="G25" s="22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="L25" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
       <c r="R25" s="24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3565,22 +3541,22 @@
     <row r="26" spans="5:34" ht="14.1" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="61"/>
+      <c r="L26" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
       <c r="R26" s="24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3602,20 +3578,20 @@
     <row r="27" spans="5:34" ht="14.1" customHeight="1">
       <c r="F27" s="28"/>
       <c r="G27" s="22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="61"/>
+      <c r="L27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3639,22 +3615,22 @@
     <row r="28" spans="5:34" ht="14.1" customHeight="1">
       <c r="F28" s="28"/>
       <c r="G28" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
+      <c r="L28" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
       <c r="R28" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3676,22 +3652,22 @@
     <row r="29" spans="5:34" ht="14.1" customHeight="1">
       <c r="F29" s="28"/>
       <c r="G29" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="61"/>
+      <c r="L29" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3711,24 +3687,24 @@
       <c r="AH29" s="23"/>
     </row>
     <row r="30" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F30" s="29"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="22" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
+      <c r="L30" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
       <c r="R30" s="24" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3748,55 +3724,55 @@
       <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E32" s="14" t="str">
-        <f>$D$14&amp;"2."</f>
-        <v>7.2.2.2.</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
@@ -3816,8 +3792,12 @@
       <c r="AH32" s="18"/>
     </row>
     <row r="33" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E33" s="14" t="str">
+        <f>$D$14&amp;"3."</f>
+        <v>7.2.2.3.</v>
+      </c>
       <c r="F33" s="17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3850,7 +3830,7 @@
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
       <c r="F34" s="17" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -3882,7 +3862,9 @@
       <c r="AH34" s="18"/>
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F35" s="27"/>
+      <c r="F35" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -3913,9 +3895,6 @@
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F36" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -3946,10 +3925,12 @@
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F37" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="27"/>
+      <c r="F37" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
@@ -3979,10 +3960,9 @@
       <c r="AH37" s="18"/>
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F38" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
@@ -4012,8 +3992,9 @@
       <c r="AH38" s="18"/>
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -4043,10 +4024,9 @@
       <c r="AH39" s="18"/>
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="27"/>
+      <c r="G40" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
@@ -4076,7 +4056,6 @@
       <c r="AH40" s="18"/>
     </row>
     <row r="41" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -4107,121 +4086,128 @@
       <c r="AH41" s="18"/>
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E42" s="14" t="str">
-        <f>$D$14&amp;"3."</f>
-        <v>7.2.2.3.</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
+      <c r="G42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="36"/>
     </row>
     <row r="43" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F43" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
+      <c r="G43" s="33">
+        <v>1</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" s="39"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="23"/>
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F44" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
+      <c r="G44" s="51">
+        <v>2</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="54"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" s="42"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="40"/>
     </row>
     <row r="45" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="O45" s="31"/>
       <c r="P45" s="27"/>
       <c r="Q45" s="27"/>
-      <c r="R45" s="18"/>
+      <c r="R45" s="27"/>
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
@@ -4237,26 +4223,29 @@
       <c r="AE45" s="18"/>
       <c r="AF45" s="18"/>
       <c r="AG45" s="18"/>
-      <c r="AH45" s="18"/>
+      <c r="AH45" s="50"/>
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="51">
+        <v>3</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
+      <c r="O46" s="49" t="s">
+        <v>59</v>
+      </c>
       <c r="P46" s="27"/>
       <c r="Q46" s="27"/>
-      <c r="R46" s="18"/>
+      <c r="R46" s="27"/>
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
       <c r="U46" s="18"/>
@@ -4272,51 +4261,51 @@
       <c r="AE46" s="18"/>
       <c r="AF46" s="18"/>
       <c r="AG46" s="18"/>
-      <c r="AH46" s="18"/>
+      <c r="AH46" s="50"/>
     </row>
     <row r="47" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G47" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="48"/>
     </row>
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G48" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
       <c r="Q48" s="27"/>
@@ -4339,16 +4328,19 @@
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F49" s="32" t="s">
+        <v>69</v>
+      </c>
       <c r="G49" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
@@ -4371,8 +4363,9 @@
       <c r="AH49" s="18"/>
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
@@ -4401,509 +4394,215 @@
       <c r="AH50" s="18"/>
     </row>
     <row r="51" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G51" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="36"/>
+      <c r="G51" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
     </row>
     <row r="52" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G52" s="33">
-        <v>1</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="23"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18"/>
     </row>
     <row r="53" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G53" s="51">
-        <v>2</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" s="54"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="O53" s="42"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AE53" s="16"/>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="40"/>
-    </row>
-    <row r="54" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G54" s="56"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="50"/>
-    </row>
-    <row r="55" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G55" s="51">
-        <v>3</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="O55" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="50"/>
-    </row>
-    <row r="56" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G56" s="29"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="O56" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="48"/>
-    </row>
-    <row r="57" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
-    </row>
-    <row r="58" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F58" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
-    </row>
-    <row r="59" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G59" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
-    </row>
-    <row r="60" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G60" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
-    </row>
-    <row r="61" spans="4:34" ht="14.1" customHeight="1">
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
-    </row>
-    <row r="62" spans="4:34" ht="14.1" customHeight="1">
-      <c r="D62" s="14" t="str">
+      <c r="D53" s="14" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.2.3.</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E53" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="64" spans="4:34" ht="14.1" customHeight="1">
-      <c r="E64" s="14" t="str">
-        <f>$D$62&amp;"1."</f>
+    <row r="54" spans="4:34" ht="14.1" customHeight="1"/>
+    <row r="55" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E55" s="14" t="str">
+        <f>$D$53&amp;"1."</f>
         <v>7.2.3.1.</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F55" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F56" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="6:34" ht="14.1" customHeight="1">
-      <c r="F65" s="17" t="s">
+    <row r="57" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F57" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="21"/>
+    </row>
+    <row r="58" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F58" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="6:34" ht="14.1" customHeight="1">
-      <c r="F66" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="20" t="s">
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20"/>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="21"/>
-    </row>
-    <row r="67" spans="6:34" ht="14.25" customHeight="1">
-      <c r="F67" s="15" t="s">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="23"/>
+    </row>
+    <row r="59" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F59" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="15" t="s">
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="23"/>
-    </row>
-    <row r="68" spans="6:34" ht="14.25" customHeight="1">
-      <c r="F68" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="23"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="E2:O2"/>
     <mergeCell ref="R2:X3"/>
@@ -4912,32 +4611,18 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>使用可能文字コード一覧</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="31" max="34" man="1"/>
-    <brk id="61" max="34" man="1"/>
+    <brk id="32" max="34" man="1"/>
+    <brk id="52" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6940F6-33FB-422D-8B8C-806D930CB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D08E4D-74FB-4FC4-98F0-6E5D85AB9F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,19 +266,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、必要に応じてNablarchおよび共通コンポーネントの文字コード変換機能を使用する。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -553,6 +540,34 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込む。</t>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2459,6 +2474,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2495,44 +2546,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3118,43 +3133,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3163,43 +3178,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3208,39 +3223,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3283,7 +3298,7 @@
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3305,13 +3320,13 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
@@ -3366,14 +3381,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="24" t="s">
         <v>16</v>
       </c>
@@ -3403,14 +3418,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
       <c r="R22" s="24" t="s">
         <v>31</v>
       </c>
@@ -3440,14 +3455,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="24" t="s">
         <v>23</v>
       </c>
@@ -3477,12 +3492,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3510,14 +3525,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="24" t="s">
         <v>36</v>
       </c>
@@ -3541,22 +3556,22 @@
     <row r="26" spans="5:34" ht="14.1" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3584,14 +3599,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3621,14 +3636,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="24" t="s">
         <v>34</v>
       </c>
@@ -3658,14 +3673,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="24" t="s">
         <v>32</v>
       </c>
@@ -3695,14 +3710,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="24" t="s">
         <v>33</v>
       </c>
@@ -3726,22 +3741,22 @@
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
       <c r="F31" s="29"/>
       <c r="G31" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
@@ -3797,7 +3812,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3830,7 +3845,7 @@
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
       <c r="F34" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -3863,7 +3878,7 @@
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
       <c r="F35" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -3926,10 +3941,10 @@
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
       <c r="F37" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -3961,7 +3976,7 @@
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
       <c r="G38" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -3993,7 +4008,7 @@
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
       <c r="G39" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -4025,7 +4040,7 @@
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
       <c r="G40" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -4087,10 +4102,10 @@
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
       <c r="G42" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -4098,7 +4113,7 @@
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
       <c r="N42" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -4126,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="39"/>
@@ -4134,7 +4149,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="39"/>
       <c r="N43" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O43" s="39"/>
       <c r="P43" s="30"/>
@@ -4162,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="42"/>
@@ -4170,7 +4185,7 @@
       <c r="L44" s="16"/>
       <c r="M44" s="42"/>
       <c r="N44" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O44" s="42"/>
       <c r="P44" s="43"/>
@@ -4202,7 +4217,7 @@
       <c r="L45" s="47"/>
       <c r="M45" s="53"/>
       <c r="N45" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O45" s="31"/>
       <c r="P45" s="27"/>
@@ -4230,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
@@ -4238,10 +4253,10 @@
       <c r="L46" s="16"/>
       <c r="M46" s="40"/>
       <c r="N46" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O46" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P46" s="27"/>
       <c r="Q46" s="27"/>
@@ -4272,10 +4287,10 @@
       <c r="L47" s="52"/>
       <c r="M47" s="53"/>
       <c r="N47" s="58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O47" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P47" s="46"/>
       <c r="Q47" s="46"/>
@@ -4329,10 +4344,10 @@
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
       <c r="F49" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
@@ -4364,7 +4379,7 @@
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
       <c r="G50" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
@@ -4395,7 +4410,7 @@
     </row>
     <row r="51" spans="4:34" ht="14.1" customHeight="1">
       <c r="G51" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
@@ -4468,17 +4483,17 @@
         <v>7.2.3.1.</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="4:34" ht="14.1" customHeight="1">
       <c r="F56" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="4:34" ht="14.1" customHeight="1">
       <c r="F57" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
@@ -4487,7 +4502,7 @@
       <c r="K57" s="20"/>
       <c r="L57" s="21"/>
       <c r="M57" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
@@ -4496,7 +4511,7 @@
       <c r="R57" s="20"/>
       <c r="S57" s="21"/>
       <c r="T57" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
@@ -4515,7 +4530,7 @@
     </row>
     <row r="58" spans="4:34" ht="14.25" customHeight="1">
       <c r="F58" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -4524,7 +4539,7 @@
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
@@ -4533,7 +4548,7 @@
       <c r="R58" s="16"/>
       <c r="S58" s="16"/>
       <c r="T58" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U58" s="22"/>
       <c r="V58" s="22"/>
@@ -4552,7 +4567,7 @@
     </row>
     <row r="59" spans="4:34" ht="14.25" customHeight="1">
       <c r="F59" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
@@ -4561,7 +4576,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -4570,7 +4585,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
       <c r="T59" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U59" s="22"/>
       <c r="V59" s="22"/>
@@ -4589,6 +4604,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L31:Q31"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4603,14 +4626,6 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D08E4D-74FB-4FC4-98F0-6E5D85AB9F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197228B2-53EE-43AF-A72E-1166828B4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,6 @@
     <t>接続先の変換パターンに応じた個別テーブルの用意を必要とする。</t>
   </si>
   <si>
-    <t>他システムとのファイル転送およびメッセージ連携での取引において、本システムで使用する文字集合と適用しないものについては、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特殊文字変換処理を実施する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -568,6 +564,13 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システムとのファイル転送およびメッセージ連携での取引において、本システムで使用する文字集合と適合しないものについては、</t>
+    <rPh sb="47" eb="49">
+      <t>テキゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2474,6 +2477,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2500,54 +2551,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3133,43 +3136,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="67"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3178,43 +3181,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3223,39 +3226,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="73"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3298,7 +3301,7 @@
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3320,13 +3323,13 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
@@ -3381,14 +3384,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="61"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="24" t="s">
         <v>16</v>
       </c>
@@ -3418,14 +3421,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="24" t="s">
         <v>31</v>
       </c>
@@ -3455,14 +3458,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
       <c r="R23" s="24" t="s">
         <v>23</v>
       </c>
@@ -3492,12 +3495,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3525,14 +3528,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
       <c r="R25" s="24" t="s">
         <v>36</v>
       </c>
@@ -3562,14 +3565,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="61"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
       <c r="R26" s="24" t="s">
         <v>41</v>
       </c>
@@ -3599,14 +3602,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="61"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3636,14 +3639,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
       <c r="R28" s="24" t="s">
         <v>34</v>
       </c>
@@ -3673,14 +3676,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="61"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="24" t="s">
         <v>32</v>
       </c>
@@ -3710,14 +3713,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
       <c r="R30" s="24" t="s">
         <v>33</v>
       </c>
@@ -3747,14 +3750,14 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="61"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
       <c r="R31" s="24" t="s">
         <v>43</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3845,7 +3848,7 @@
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
       <c r="F34" s="17" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -3878,7 +3881,7 @@
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
       <c r="F35" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -3941,7 +3944,7 @@
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
       <c r="F37" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>53</v>
@@ -4008,7 +4011,7 @@
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
       <c r="G39" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
@@ -4040,7 +4043,7 @@
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
       <c r="G40" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
@@ -4105,7 +4108,7 @@
         <v>55</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -4113,7 +4116,7 @@
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
       <c r="N42" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -4141,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="39"/>
@@ -4185,7 +4188,7 @@
       <c r="L44" s="16"/>
       <c r="M44" s="42"/>
       <c r="N44" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O44" s="42"/>
       <c r="P44" s="43"/>
@@ -4217,7 +4220,7 @@
       <c r="L45" s="47"/>
       <c r="M45" s="53"/>
       <c r="N45" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O45" s="31"/>
       <c r="P45" s="27"/>
@@ -4253,7 +4256,7 @@
       <c r="L46" s="16"/>
       <c r="M46" s="40"/>
       <c r="N46" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O46" s="49" t="s">
         <v>58</v>
@@ -4287,7 +4290,7 @@
       <c r="L47" s="52"/>
       <c r="M47" s="53"/>
       <c r="N47" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O47" s="45" t="s">
         <v>59</v>
@@ -4344,7 +4347,7 @@
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
       <c r="F49" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>61</v>
@@ -4604,14 +4607,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L31:Q31"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4626,6 +4621,14 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197228B2-53EE-43AF-A72E-1166828B4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D5901-5E40-4950-8FEF-34AD7DAC5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$57</definedName>
     <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -421,88 +421,35 @@
     <t>特殊文字入力変換処理</t>
   </si>
   <si>
-    <t>本システムのブラウザより、許容されない文字が入力された場合、特定文字へ変換後エラーを返す。</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>入力画面にエラーを返す。</t>
   </si>
   <si>
-    <t>周辺システム</t>
-  </si>
-  <si>
     <t>エラーとして相手先に通知し、処理を中断する。</t>
   </si>
   <si>
-    <t>エラーとするが特定文字に変換し、処理を継続する。　</t>
-  </si>
-  <si>
     <t>ファイル転送/外部媒体</t>
   </si>
   <si>
     <t>特殊文字出力変換処理</t>
   </si>
   <si>
-    <t>接続先システムが、本システム選定の拡張文字を許容しない場合、代替文字（略字等）へ変換する。</t>
-  </si>
-  <si>
-    <t>接続先の変換パターンに応じた個別テーブルの用意を必要とする。</t>
-  </si>
-  <si>
-    <t>特殊文字変換処理を実施する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>接続先</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブラウザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラー時の振る舞い</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー時の振る舞いは、業務コンポーネントにて制御する。</t>
-    <rPh sb="11" eb="13">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>接続先システムに応じて、下記のいずれかを選択する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エラー通知や運用面も考慮して選択すること。</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>禁止文字、他システム非許容拡張文字の取り扱い</t>
-  </si>
-  <si>
-    <t>非許容文字としては、前述の禁止文字に加え、選定外拡張文字を指す。</t>
   </si>
   <si>
     <t>システム内で使用する文字種と文字コード</t>
@@ -568,9 +515,149 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>他システムとのファイル転送およびメッセージ連携での取引において、本システムで使用する文字集合と適合しないものについては、</t>
-    <rPh sb="47" eb="49">
-      <t>テキゴウ</t>
+    <t>禁止文字、他システム禁止文字の取り扱い</t>
+    <rPh sb="10" eb="12">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラウザや他システムから禁止文字が入力された場合は、業務コンポーネントにて以下のようにエラー制御を行う。</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字と定義する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムの使用許可文字種に含まれる文字のうち、接続先システムがファイル転送およびメッセージ連携において許容しない文字を、</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シヨウキョカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代替文字の変換ルールは、接続先ごとに個別テーブルを用意して管理する。</t>
+    <rPh sb="0" eb="4">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとするが代替文字に変換し、処理を継続する。　</t>
+    <rPh sb="7" eb="9">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字は、代替文字（略字等）へ変換したうえで接続先システムに連携する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リャクジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2390,92 +2477,128 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2513,44 +2636,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3118,7 +3205,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI59"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3136,43 +3223,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3181,43 +3268,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3226,39 +3313,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3301,7 +3388,7 @@
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3323,13 +3410,13 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
@@ -3384,14 +3471,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="24" t="s">
         <v>16</v>
       </c>
@@ -3421,14 +3508,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
       <c r="R22" s="24" t="s">
         <v>31</v>
       </c>
@@ -3458,14 +3545,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="24" t="s">
         <v>23</v>
       </c>
@@ -3495,12 +3582,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3528,14 +3615,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="24" t="s">
         <v>36</v>
       </c>
@@ -3565,14 +3652,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="24" t="s">
         <v>41</v>
       </c>
@@ -3602,14 +3689,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3639,14 +3726,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="24" t="s">
         <v>34</v>
       </c>
@@ -3676,14 +3763,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="24" t="s">
         <v>32</v>
       </c>
@@ -3713,14 +3800,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="24" t="s">
         <v>33</v>
       </c>
@@ -3750,14 +3837,14 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="75" t="s">
+      <c r="L31" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="24" t="s">
         <v>43</v>
       </c>
@@ -3815,7 +3902,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3847,10 +3934,13 @@
       <c r="AH33" s="18"/>
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="27"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
@@ -3880,10 +3970,10 @@
       <c r="AH34" s="18"/>
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="27"/>
+      <c r="E35" s="14"/>
+      <c r="G35" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
@@ -3913,6 +4003,7 @@
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E36" s="14"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -3943,119 +4034,128 @@
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F37" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
+      <c r="G37" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="35"/>
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G38" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
+      <c r="G38" s="32">
+        <v>1</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="38"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="23"/>
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G39" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
+      <c r="G39" s="50">
+        <v>2</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="39"/>
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G40" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" s="30"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
-      <c r="R40" s="18"/>
+      <c r="R40" s="27"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
@@ -4071,21 +4171,29 @@
       <c r="AE40" s="18"/>
       <c r="AF40" s="18"/>
       <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
+      <c r="AH40" s="49"/>
     </row>
     <row r="41" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="G41" s="50">
+        <v>3</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
-      <c r="R41" s="18"/>
+      <c r="R41" s="27"/>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
@@ -4101,131 +4209,126 @@
       <c r="AE41" s="18"/>
       <c r="AF41" s="18"/>
       <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
+      <c r="AH41" s="49"/>
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G42" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="36"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="47"/>
     </row>
     <row r="43" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G43" s="33">
-        <v>1</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="23"/>
+      <c r="E43" s="14"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G44" s="51">
-        <v>2</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="O44" s="42"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
-      <c r="AE44" s="16"/>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="40"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
     </row>
     <row r="45" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G45" s="56"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="55" t="s">
+      <c r="E45" s="14"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="O45" s="31"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
       <c r="P45" s="27"/>
       <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="R45" s="18"/>
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
@@ -4241,29 +4344,25 @@
       <c r="AE45" s="18"/>
       <c r="AF45" s="18"/>
       <c r="AG45" s="18"/>
-      <c r="AH45" s="50"/>
+      <c r="AH45" s="18"/>
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G46" s="51">
-        <v>3</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="O46" s="49" t="s">
-        <v>58</v>
-      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
       <c r="P46" s="27"/>
       <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
+      <c r="R46" s="18"/>
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
       <c r="U46" s="18"/>
@@ -4279,51 +4378,54 @@
       <c r="AE46" s="18"/>
       <c r="AF46" s="18"/>
       <c r="AG46" s="18"/>
-      <c r="AH46" s="50"/>
+      <c r="AH46" s="18"/>
     </row>
     <row r="47" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G47" s="29"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="58" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+    </row>
+    <row r="48" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E48" s="14"/>
+      <c r="G48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O47" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="47"/>
-      <c r="AH47" s="48"/>
-    </row>
-    <row r="48" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
       <c r="Q48" s="27"/>
@@ -4346,19 +4448,12 @@
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F49" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="27"/>
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
@@ -4381,232 +4476,150 @@
       <c r="AH49" s="18"/>
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G50" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
-    </row>
-    <row r="51" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G51" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-    </row>
-    <row r="52" spans="4:34" ht="14.1" customHeight="1">
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18"/>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
-    </row>
-    <row r="53" spans="4:34" ht="14.1" customHeight="1">
-      <c r="D53" s="14" t="str">
+      <c r="D50" s="14" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.2.3.</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E50" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="55" spans="4:34" ht="14.1" customHeight="1">
-      <c r="E55" s="14" t="str">
-        <f>$D$53&amp;"1."</f>
+    <row r="51" spans="4:34" ht="14.1" customHeight="1"/>
+    <row r="52" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E52" s="14" t="str">
+        <f>$D$50&amp;"1."</f>
         <v>7.2.3.1.</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F56" s="17" t="s">
+    <row r="53" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F53" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F57" s="19" t="s">
+    <row r="54" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F54" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="20" t="s">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="26" t="s">
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="21"/>
-    </row>
-    <row r="58" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F58" s="15" t="s">
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="21"/>
+    </row>
+    <row r="55" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F55" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="15" t="s">
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="24" t="s">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="23"/>
-    </row>
-    <row r="59" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F59" s="24" t="s">
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="23"/>
+    </row>
+    <row r="56" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F56" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24" t="s">
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="24" t="s">
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="23"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L31:Q31"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4621,14 +4634,6 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">
@@ -4638,9 +4643,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="32" max="34" man="1"/>
-    <brk id="52" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D5901-5E40-4950-8FEF-34AD7DAC5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-105" windowWidth="16110" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.2.文字コード" sheetId="12" r:id="rId1"/>
@@ -12,15 +13,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$73</definedName>
-    <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$57</definedName>
+    <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -137,10 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム内で使用する文字コード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -258,19 +266,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、必要に応じてNablarchおよび共通コンポーネントの文字コード変換機能を使用する。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -423,127 +418,254 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不要な文字化けを回避する為、外部システムからの入力禁則文字を定めエラーとして扱う。</t>
-  </si>
-  <si>
-    <t>具体的には、以下のケースで、文字化けが発生することが考えられる。</t>
-  </si>
-  <si>
-    <t>上記ケースの対象となる文字について、業務処理における影響度を調査のうえ、禁則文字を決定する。</t>
-  </si>
-  <si>
     <t>特殊文字入力変換処理</t>
   </si>
   <si>
-    <t>本システムのブラウザより、許容されない文字が入力された場合、特定文字へ変換後エラーを返す。</t>
-  </si>
-  <si>
-    <t>非許容文字としては、前述の禁則文字に加え、選定外拡張文字を指す。</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>入力画面にエラーを返す。</t>
   </si>
   <si>
-    <t>周辺システム</t>
-  </si>
-  <si>
     <t>エラーとして相手先に通知し、処理を中断する。</t>
   </si>
   <si>
-    <t>エラーとするが特定文字に変換し、処理を継続する。　</t>
-  </si>
-  <si>
     <t>ファイル転送/外部媒体</t>
   </si>
   <si>
     <t>特殊文字出力変換処理</t>
   </si>
   <si>
-    <t>接続先システムが、本システム選定の拡張文字を許容しない場合、代替文字（略字等）へ変換する。</t>
-  </si>
-  <si>
-    <t>接続先の変換パターンに応じた個別テーブルの用意を必要とする。</t>
-  </si>
-  <si>
-    <t>禁則文字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java系の処理方式をとる場合、内部でUnicode変換が発生するので、コンバータが２箇所に跨るケースがある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・コンバータ（エンコーディング表）によりコードポイントが異なる文字を処理するケース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・本システムと、周辺システムで異なるコンバータを使用する可能性がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>禁則文字、他システム非許容拡張文字の取り扱い</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他システムとのファイル転送およびメッセージ連携での取引において、本システムで使用する文字集合と適用しないものについては、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊文字変換処理を実施する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>接続先</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブラウザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラー時の振る舞い</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
+    <t>接続先システムに応じて、下記のいずれかを選択する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー通知や運用面も考慮して選択すること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム内で使用する文字種と文字コード</t>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、【使用可能文字種一覧】で定められた文字種のみを使用可能（使用許可文字種）とし、それ以外は禁止文字とする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="16">
+      <t>シヨウカノウモジシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込む。</t>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>禁止文字、他システム禁止文字の取り扱い</t>
+    <rPh sb="10" eb="12">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラウザや他システムから禁止文字が入力された場合は、業務コンポーネントにて以下のようにエラー制御を行う。</t>
     <rPh sb="5" eb="6">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー時の振る舞いは、業務コンポーネントにて制御する。</t>
-    <rPh sb="11" eb="13">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>ギョウム</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システムに応じて、下記のいずれかを選択する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー通知や運用面も考慮して選択すること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字と定義する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムの使用許可文字種に含まれる文字のうち、接続先システムがファイル転送およびメッセージ連携において許容しない文字を、</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シヨウキョカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代替文字の変換ルールは、接続先ごとに個別テーブルを用意して管理する。</t>
+    <rPh sb="0" eb="4">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとするが代替文字に変換し、処理を継続する。　</t>
+    <rPh sb="7" eb="9">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字は、代替文字（略字等）へ変換したうえで接続先システムに連携する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リャクジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レンケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2355,92 +2477,128 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2478,273 +2636,237 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="226">
-    <cellStyle name="_x000c_ーセン_x000c_" xfId="7"/>
-    <cellStyle name="??????" xfId="8"/>
-    <cellStyle name="??_???? ?? ??? (2)" xfId="9"/>
-    <cellStyle name="?E°CE，°e1yAI" xfId="10"/>
-    <cellStyle name="_ペンディング管理一..." xfId="11"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="12"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="25"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="26"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="27"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="28"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="29"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="30"/>
-    <cellStyle name="AeE- [0]_Co´e0124" xfId="31"/>
-    <cellStyle name="AeE-_Co´e0124" xfId="32"/>
-    <cellStyle name="args.style" xfId="33"/>
-    <cellStyle name="AT，¶ [0]_Co´e0124" xfId="34"/>
-    <cellStyle name="AT，¶_Co´e0124" xfId="35"/>
-    <cellStyle name="BD標準" xfId="36"/>
-    <cellStyle name="C\AO_Co´e0124" xfId="37"/>
-    <cellStyle name="Calc Currency (0)" xfId="38"/>
-    <cellStyle name="Calc Currency (0) 2" xfId="39"/>
-    <cellStyle name="Calc Currency (2)" xfId="40"/>
-    <cellStyle name="Calc Percent (0)" xfId="41"/>
-    <cellStyle name="Calc Percent (1)" xfId="42"/>
-    <cellStyle name="Calc Percent (2)" xfId="43"/>
-    <cellStyle name="Calc Units (0)" xfId="44"/>
-    <cellStyle name="Calc Units (1)" xfId="45"/>
-    <cellStyle name="Calc Units (2)" xfId="46"/>
-    <cellStyle name="category" xfId="47"/>
-    <cellStyle name="ColumnAttributeAbovePrompt" xfId="48"/>
-    <cellStyle name="ColumnAttributePrompt" xfId="49"/>
-    <cellStyle name="ColumnAttributeValue" xfId="50"/>
-    <cellStyle name="ColumnHeadingPrompt" xfId="51"/>
-    <cellStyle name="ColumnHeadingValue" xfId="52"/>
-    <cellStyle name="Comma [0]_!!!GO" xfId="53"/>
-    <cellStyle name="Comma [00]" xfId="54"/>
-    <cellStyle name="Comma_!!!GO" xfId="55"/>
-    <cellStyle name="Comma0" xfId="56"/>
-    <cellStyle name="COMP定番表書式" xfId="57"/>
-    <cellStyle name="Copied" xfId="58"/>
-    <cellStyle name="Currency [0]_!!!GO" xfId="59"/>
-    <cellStyle name="Currency [00]" xfId="60"/>
-    <cellStyle name="Currency_!!!GO" xfId="61"/>
-    <cellStyle name="Currency0" xfId="62"/>
-    <cellStyle name="Date Short" xfId="63"/>
-    <cellStyle name="Enter Currency (0)" xfId="64"/>
-    <cellStyle name="Enter Currency (2)" xfId="65"/>
-    <cellStyle name="Enter Units (0)" xfId="66"/>
-    <cellStyle name="Enter Units (1)" xfId="67"/>
-    <cellStyle name="Enter Units (2)" xfId="68"/>
-    <cellStyle name="Entered" xfId="69"/>
-    <cellStyle name="entry" xfId="70"/>
-    <cellStyle name="Followed Hyperlink" xfId="71"/>
-    <cellStyle name="Grey" xfId="72"/>
-    <cellStyle name="Grey 2" xfId="73"/>
-    <cellStyle name="HEADER" xfId="74"/>
-    <cellStyle name="Header 1" xfId="75"/>
-    <cellStyle name="Header 2" xfId="76"/>
-    <cellStyle name="Header Center" xfId="77"/>
-    <cellStyle name="Header1" xfId="78"/>
-    <cellStyle name="Header2" xfId="79"/>
-    <cellStyle name="Heading 1" xfId="80"/>
-    <cellStyle name="Heading 1 2" xfId="81"/>
-    <cellStyle name="Heading 2" xfId="82"/>
-    <cellStyle name="HEADINGS" xfId="83"/>
-    <cellStyle name="HEADINGSTOP" xfId="84"/>
-    <cellStyle name="HP Logo" xfId="85"/>
-    <cellStyle name="Hyperlink" xfId="86"/>
-    <cellStyle name="IBM(401K)" xfId="87"/>
-    <cellStyle name="Input [yellow]" xfId="88"/>
-    <cellStyle name="Input [yellow] 2" xfId="89"/>
-    <cellStyle name="J401K" xfId="90"/>
-    <cellStyle name="LineItemPrompt" xfId="91"/>
-    <cellStyle name="LineItemValue" xfId="92"/>
-    <cellStyle name="Link Currency (0)" xfId="93"/>
-    <cellStyle name="Link Currency (2)" xfId="94"/>
-    <cellStyle name="Link Units (0)" xfId="95"/>
-    <cellStyle name="Link Units (1)" xfId="96"/>
-    <cellStyle name="Link Units (2)" xfId="97"/>
-    <cellStyle name="Millares [0]_BRASIL (2)" xfId="98"/>
-    <cellStyle name="Millares_5670-t123" xfId="99"/>
-    <cellStyle name="Milliers [0]_!!!GO" xfId="100"/>
-    <cellStyle name="Milliers_!!!GO" xfId="101"/>
-    <cellStyle name="Model" xfId="102"/>
-    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="103"/>
-    <cellStyle name="Moneda_5670-t123" xfId="104"/>
-    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="105"/>
-    <cellStyle name="Mon騁aire_!!!GO" xfId="106"/>
-    <cellStyle name="Normal - Style1" xfId="107"/>
-    <cellStyle name="Normal - Style1 2" xfId="108"/>
-    <cellStyle name="Normal_!!!GO" xfId="109"/>
-    <cellStyle name="Normale_LSCO0697" xfId="110"/>
-    <cellStyle name="nozawa" xfId="111"/>
-    <cellStyle name="Oasis" xfId="112"/>
-    <cellStyle name="OUTPUT AMOUNTS" xfId="113"/>
-    <cellStyle name="OUTPUT COLUMN HEADINGS" xfId="114"/>
-    <cellStyle name="OUTPUT LINE ITEMS" xfId="115"/>
-    <cellStyle name="OUTPUT REPORT HEADING" xfId="116"/>
-    <cellStyle name="OUTPUT REPORT TITLE" xfId="117"/>
-    <cellStyle name="per.style" xfId="118"/>
-    <cellStyle name="Percent [0]" xfId="119"/>
-    <cellStyle name="Percent [00]" xfId="120"/>
-    <cellStyle name="Percent [2]" xfId="121"/>
-    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="122"/>
-    <cellStyle name="PrePop Currency (0)" xfId="123"/>
-    <cellStyle name="PrePop Currency (2)" xfId="124"/>
-    <cellStyle name="PrePop Units (0)" xfId="125"/>
-    <cellStyle name="PrePop Units (1)" xfId="126"/>
-    <cellStyle name="PrePop Units (2)" xfId="127"/>
-    <cellStyle name="price" xfId="128"/>
-    <cellStyle name="pricing" xfId="129"/>
-    <cellStyle name="PSChar" xfId="130"/>
-    <cellStyle name="PSHeading" xfId="131"/>
-    <cellStyle name="regstoresfromspecstores" xfId="132"/>
-    <cellStyle name="ReportTitlePrompt" xfId="133"/>
-    <cellStyle name="ReportTitleValue" xfId="134"/>
-    <cellStyle name="revised" xfId="135"/>
-    <cellStyle name="RevList" xfId="136"/>
-    <cellStyle name="RowAcctAbovePrompt" xfId="137"/>
-    <cellStyle name="RowAcctSOBAbovePrompt" xfId="138"/>
-    <cellStyle name="RowAcctSOBValue" xfId="139"/>
-    <cellStyle name="RowAcctValue" xfId="140"/>
-    <cellStyle name="RowAttrAbovePrompt" xfId="141"/>
-    <cellStyle name="RowAttrValue" xfId="142"/>
-    <cellStyle name="RowColSetAbovePrompt" xfId="143"/>
-    <cellStyle name="RowColSetLeftPrompt" xfId="144"/>
-    <cellStyle name="RowColSetValue" xfId="145"/>
-    <cellStyle name="RowLeftPrompt" xfId="146"/>
-    <cellStyle name="SampleUsingFormatMask" xfId="147"/>
-    <cellStyle name="SampleWithNoFormatMask" xfId="148"/>
-    <cellStyle name="section" xfId="149"/>
-    <cellStyle name="SHADEDSTORES" xfId="150"/>
-    <cellStyle name="specstores" xfId="151"/>
-    <cellStyle name="subhead" xfId="152"/>
-    <cellStyle name="Subtotal" xfId="153"/>
-    <cellStyle name="Table Entry" xfId="154"/>
-    <cellStyle name="Table Heading" xfId="155"/>
-    <cellStyle name="Table Heading Center" xfId="156"/>
-    <cellStyle name="Table Medium" xfId="157"/>
-    <cellStyle name="Table Normal" xfId="158"/>
-    <cellStyle name="Table Small" xfId="159"/>
-    <cellStyle name="Table Small Bold" xfId="160"/>
-    <cellStyle name="Table Small Center" xfId="161"/>
-    <cellStyle name="Table Title" xfId="162"/>
-    <cellStyle name="Text Indent A" xfId="163"/>
-    <cellStyle name="Text Indent B" xfId="164"/>
-    <cellStyle name="Text Indent C" xfId="165"/>
-    <cellStyle name="title" xfId="166"/>
-    <cellStyle name="Total" xfId="167"/>
-    <cellStyle name="UploadThisRowValue" xfId="168"/>
-    <cellStyle name="あああ" xfId="169"/>
-    <cellStyle name="アクセント 1 2" xfId="170"/>
-    <cellStyle name="アクセント 2 2" xfId="171"/>
-    <cellStyle name="アクセント 3 2" xfId="172"/>
-    <cellStyle name="アクセント 4 2" xfId="173"/>
-    <cellStyle name="アクセント 5 2" xfId="174"/>
-    <cellStyle name="アクセント 6 2" xfId="175"/>
-    <cellStyle name="スタイル 1" xfId="176"/>
-    <cellStyle name="センター" xfId="177"/>
-    <cellStyle name="タイトル 2" xfId="178"/>
-    <cellStyle name="チェック セル 2" xfId="179"/>
-    <cellStyle name="どちらでもない 2" xfId="180"/>
-    <cellStyle name="パーセント 2" xfId="181"/>
-    <cellStyle name="ハイパーリンク 2" xfId="182"/>
-    <cellStyle name="メモ 2" xfId="183"/>
-    <cellStyle name="リンク セル 2" xfId="184"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="185"/>
-    <cellStyle name="悪い 2" xfId="186"/>
-    <cellStyle name="開発計画書スタイル" xfId="187"/>
-    <cellStyle name="計算 2" xfId="188"/>
-    <cellStyle name="警告文 2" xfId="189"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_DATA" xfId="190"/>
-    <cellStyle name="桁蟻唇Ｆ_DATA" xfId="191"/>
-    <cellStyle name="桁区切? [0.00]" xfId="192"/>
-    <cellStyle name="桁区切り 2" xfId="193"/>
-    <cellStyle name="見出し 1 2" xfId="194"/>
-    <cellStyle name="見出し 2 2" xfId="195"/>
-    <cellStyle name="見出し 3 2" xfId="196"/>
-    <cellStyle name="見出し 4 2" xfId="197"/>
-    <cellStyle name="集計 2" xfId="198"/>
-    <cellStyle name="出力 2" xfId="199"/>
-    <cellStyle name="常规_GATE_共通DB(マスタ)_20070212" xfId="200"/>
-    <cellStyle name="人月" xfId="201"/>
-    <cellStyle name="説明文 2" xfId="202"/>
-    <cellStyle name="脱浦 [0.00]_~0007176" xfId="203"/>
-    <cellStyle name="脱浦_~0007176" xfId="204"/>
-    <cellStyle name="通貨 2" xfId="205"/>
-    <cellStyle name="入力 2" xfId="206"/>
-    <cellStyle name="破線" xfId="207"/>
-    <cellStyle name="標?_Pacific Region P&amp;L" xfId="208"/>
+    <cellStyle name="_x000c_ーセン_x000c_" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="??????" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="??_???? ?? ??? (2)" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="?E°CE，°e1yAI" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_ペンディング管理一..." xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="AeE- [0]_Co´e0124" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="AeE-_Co´e0124" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="args.style" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="AT，¶ [0]_Co´e0124" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="AT，¶_Co´e0124" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="BD標準" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="C\AO_Co´e0124" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Currency (0) 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="category" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="ColumnAttributeAbovePrompt" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="ColumnAttributePrompt" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="ColumnAttributeValue" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="ColumnHeadingPrompt" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="ColumnHeadingValue" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma [0]_!!!GO" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma [00]" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma_!!!GO" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma0" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="COMP定番表書式" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Copied" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Currency [0]_!!!GO" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Currency [00]" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Currency_!!!GO" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Currency0" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Date Short" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Entered" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="entry" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Grey" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Grey 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="HEADER" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header 1" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header Center" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header1" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Heading 1" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Heading 1 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Heading 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="HEADINGS" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="HEADINGSTOP" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="HP Logo" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Hyperlink" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="IBM(401K)" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Input [yellow]" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Input [yellow] 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="J401K" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="LineItemPrompt" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="LineItemValue" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Link Units (0)" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Link Units (1)" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Link Units (2)" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Millares [0]_BRASIL (2)" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Millares_5670-t123" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Milliers [0]_!!!GO" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Milliers_!!!GO" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Model" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Moneda_5670-t123" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Mon騁aire_!!!GO" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal - Style1" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal_!!!GO" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normale_LSCO0697" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="nozawa" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Oasis" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="OUTPUT AMOUNTS" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="OUTPUT COLUMN HEADINGS" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="OUTPUT LINE ITEMS" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="OUTPUT REPORT HEADING" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="OUTPUT REPORT TITLE" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="per.style" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Percent [0]" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Percent [00]" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Percent [2]" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="price" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="pricing" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="PSChar" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="PSHeading" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="regstoresfromspecstores" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="ReportTitlePrompt" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="ReportTitleValue" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="revised" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="RevList" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="RowAcctAbovePrompt" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="RowAcctSOBAbovePrompt" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="RowAcctSOBValue" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="RowAcctValue" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="RowAttrAbovePrompt" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="RowAttrValue" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="RowColSetAbovePrompt" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="RowColSetLeftPrompt" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="RowColSetValue" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="RowLeftPrompt" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="SampleUsingFormatMask" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="SampleWithNoFormatMask" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="section" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="SHADEDSTORES" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="specstores" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="subhead" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Subtotal" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Table Entry" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Table Heading" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Table Heading Center" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Table Medium" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Table Normal" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Table Small" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Table Small Bold" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Table Small Center" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Table Title" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Text Indent A" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Text Indent B" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Text Indent C" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="title" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Total" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="UploadThisRowValue" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="あああ" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="スタイル 1" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="センター" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="タイトル 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="チェック セル 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="パーセント 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="メモ 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="リンク セル 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="悪い 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="開発計画書スタイル" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="計算 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="警告文 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_DATA" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_DATA" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="桁区切? [0.00]" xfId="192" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="桁区切り 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="見出し 1 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="見出し 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="見出し 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="見出し 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="集計 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="出力 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规_GATE_共通DB(マスタ)_20070212" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="人月" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="説明文 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="脱浦 [0.00]_~0007176" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="脱浦_~0007176" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="通貨 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="入力 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="破線" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="標?_Pacific Region P&amp;L" xfId="208" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="209"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準 3 2" xfId="210"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準 4" xfId="211"/>
-    <cellStyle name="標準 5" xfId="212"/>
-    <cellStyle name="標準 5 2" xfId="213"/>
-    <cellStyle name="標準 6" xfId="6"/>
-    <cellStyle name="標準 7" xfId="214"/>
-    <cellStyle name="標準 8" xfId="5"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
-    <cellStyle name="標準１" xfId="215"/>
-    <cellStyle name="標準TY" xfId="216"/>
-    <cellStyle name="表旨巧・・ハイパーリンク" xfId="217"/>
-    <cellStyle name="表題" xfId="218"/>
-    <cellStyle name="磨葬e義" xfId="219"/>
-    <cellStyle name="未定義" xfId="220"/>
-    <cellStyle name="良い 2" xfId="221"/>
-    <cellStyle name="爲敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="222"/>
-    <cellStyle name="捬䌠牵敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="223"/>
-    <cellStyle name="爱敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="224"/>
-    <cellStyle name="㠱䤭瑮牥敮⡴⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="225"/>
+    <cellStyle name="標準 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="標準 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="標準 4" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="標準 5" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="標準 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="標準 6" xfId="6" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="標準 7" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="標準 8" xfId="5" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="標準１" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="標準TY" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="表旨巧・・ハイパーリンク" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="表題" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="磨葬e義" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="未定義" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="良い 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="爲敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="捬䌠牵敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="爱敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="㠱䤭瑮牥敮⡴⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2752,12 +2874,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2799,7 +2924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2832,9 +2957,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,6 +3009,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3042,11 +3201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3064,43 +3223,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3109,43 +3268,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3154,39 +3313,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3224,12 +3383,12 @@
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3251,108 +3410,77 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="5:34" ht="14.1" customHeight="1"/>
-    <row r="19" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F19" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F18" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="5:34" ht="14.1" customHeight="1"/>
+    <row r="20" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="26" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
-    </row>
-    <row r="20" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="23"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="5:34" ht="14.1" customHeight="1">
       <c r="F21" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="24" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -3372,24 +3500,24 @@
       <c r="AH21" s="23"/>
     </row>
     <row r="22" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="F22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
       <c r="R22" s="24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3409,21 +3537,25 @@
       <c r="AH22" s="23"/>
     </row>
     <row r="23" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F23" s="15" t="s">
-        <v>25</v>
+      <c r="F23" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="22"/>
+      <c r="L23" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
@@ -3442,25 +3574,21 @@
       <c r="AH23" s="23"/>
     </row>
     <row r="24" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F24" s="28"/>
-      <c r="G24" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="F24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
@@ -3481,22 +3609,22 @@
     <row r="25" spans="5:34" ht="14.1" customHeight="1">
       <c r="F25" s="28"/>
       <c r="G25" s="22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="L25" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3518,22 +3646,22 @@
     <row r="26" spans="5:34" ht="14.1" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="L26" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3555,20 +3683,20 @@
     <row r="27" spans="5:34" ht="14.1" customHeight="1">
       <c r="F27" s="28"/>
       <c r="G27" s="22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="L27" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3592,22 +3720,22 @@
     <row r="28" spans="5:34" ht="14.1" customHeight="1">
       <c r="F28" s="28"/>
       <c r="G28" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="L28" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3629,22 +3757,22 @@
     <row r="29" spans="5:34" ht="14.1" customHeight="1">
       <c r="F29" s="28"/>
       <c r="G29" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="L29" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3664,24 +3792,24 @@
       <c r="AH29" s="23"/>
     </row>
     <row r="30" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F30" s="29"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="22" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="L30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="24" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3701,55 +3829,55 @@
       <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E32" s="14" t="str">
-        <f>$D$14&amp;"2."</f>
-        <v>7.2.2.2.</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
@@ -3769,8 +3897,12 @@
       <c r="AH32" s="18"/>
     </row>
     <row r="33" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E33" s="14" t="str">
+        <f>$D$14&amp;"3."</f>
+        <v>7.2.2.3.</v>
+      </c>
       <c r="F33" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3802,10 +3934,13 @@
       <c r="AH33" s="18"/>
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F34" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="27"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
@@ -3835,8 +3970,10 @@
       <c r="AH34" s="18"/>
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="E35" s="14"/>
+      <c r="G35" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
@@ -3866,9 +4003,7 @@
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F36" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="E36" s="14"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -3899,118 +4034,128 @@
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F37" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
+      <c r="G37" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="34"/>
+      <c r="AE37" s="34"/>
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="35"/>
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F38" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
+      <c r="G38" s="32">
+        <v>1</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="38"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="23"/>
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
+      <c r="G39" s="50">
+        <v>2</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="39"/>
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F40" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" s="30"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
-      <c r="R40" s="18"/>
+      <c r="R40" s="27"/>
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
@@ -4026,22 +4171,29 @@
       <c r="AE40" s="18"/>
       <c r="AF40" s="18"/>
       <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
+      <c r="AH40" s="49"/>
     </row>
     <row r="41" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="G41" s="50">
+        <v>3</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
-      <c r="R41" s="18"/>
+      <c r="R41" s="27"/>
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
@@ -4057,49 +4209,44 @@
       <c r="AE41" s="18"/>
       <c r="AF41" s="18"/>
       <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
+      <c r="AH41" s="49"/>
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E42" s="14" t="str">
-        <f>$D$14&amp;"3."</f>
-        <v>7.2.2.3.</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="47"/>
     </row>
     <row r="43" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F43" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="E43" s="14"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
@@ -4130,10 +4277,13 @@
       <c r="AH43" s="18"/>
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F44" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="27"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
@@ -4163,7 +4313,11 @@
       <c r="AH44" s="18"/>
     </row>
     <row r="45" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G45" s="27"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -4193,11 +4347,10 @@
       <c r="AH45" s="18"/>
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F46" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="31"/>
       <c r="G46" s="17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4228,8 +4381,10 @@
       <c r="AH46" s="18"/>
     </row>
     <row r="47" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E47" s="14"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4260,8 +4415,9 @@
       <c r="AH47" s="18"/>
     </row>
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E48" s="14"/>
       <c r="G48" s="17" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4292,10 +4448,6 @@
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G49" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -4324,553 +4476,142 @@
       <c r="AH49" s="18"/>
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="18"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
-    </row>
-    <row r="51" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G51" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="36"/>
-    </row>
+      <c r="D50" s="14" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>7.2.3.</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="4:34" ht="14.1" customHeight="1"/>
     <row r="52" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G52" s="33">
-        <v>1</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="23"/>
+      <c r="E52" s="14" t="str">
+        <f>$D$50&amp;"1."</f>
+        <v>7.2.3.1.</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="53" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G53" s="51">
-        <v>2</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="54"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="O53" s="42"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AE53" s="16"/>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="40"/>
+      <c r="F53" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="54" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G54" s="56"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="50"/>
-    </row>
-    <row r="55" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G55" s="51">
-        <v>3</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>66</v>
-      </c>
+      <c r="F54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="21"/>
+    </row>
+    <row r="55" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F55" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="O55" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="50"/>
-    </row>
-    <row r="56" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G56" s="29"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="O56" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="48"/>
-    </row>
-    <row r="57" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
-    </row>
-    <row r="58" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F58" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
-    </row>
-    <row r="59" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G59" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
-    </row>
-    <row r="60" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G60" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
-    </row>
-    <row r="61" spans="4:34" ht="14.1" customHeight="1">
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
-    </row>
-    <row r="62" spans="4:34" ht="14.1" customHeight="1">
-      <c r="D62" s="14" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>7.2.3.</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="64" spans="4:34" ht="14.1" customHeight="1">
-      <c r="E64" s="14" t="str">
-        <f>$D$62&amp;"1."</f>
-        <v>7.2.3.1.</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="6:34" ht="14.1" customHeight="1">
-      <c r="F65" s="17" t="s">
+      <c r="M55" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="23"/>
+    </row>
+    <row r="56" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F56" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="6:34" ht="14.1" customHeight="1">
-      <c r="F66" s="19" t="s">
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="20" t="s">
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20"/>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="21"/>
-    </row>
-    <row r="67" spans="6:34" ht="14.25" customHeight="1">
-      <c r="F67" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="23"/>
-    </row>
-    <row r="68" spans="6:34" ht="14.25" customHeight="1">
-      <c r="F68" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="23"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="L23:Q23"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="E2:O2"/>
     <mergeCell ref="R2:X3"/>
@@ -4879,18 +4620,31 @@
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L30">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>使用可能文字コード一覧</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="31" max="34" man="1"/>
-    <brk id="61" max="34" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D5901-5E40-4950-8FEF-34AD7DAC5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD117AD9-4F9C-4B95-B485-D2ADAEF8F943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t>入力画面にエラーを返す。</t>
   </si>
   <si>
-    <t>エラーとして相手先に通知し、処理を中断する。</t>
-  </si>
-  <si>
     <t>ファイル転送/外部媒体</t>
   </si>
   <si>
@@ -659,6 +656,10 @@
     <rPh sb="36" eb="38">
       <t>レンケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとして処理を中断する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2564,6 +2565,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2590,54 +2639,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3223,43 +3224,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="67"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3268,43 +3269,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3313,39 +3314,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="73"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3388,7 +3389,7 @@
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3410,13 +3411,13 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
@@ -3471,14 +3472,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="61"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="24" t="s">
         <v>16</v>
       </c>
@@ -3508,14 +3509,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="24" t="s">
         <v>31</v>
       </c>
@@ -3545,14 +3546,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
       <c r="R23" s="24" t="s">
         <v>23</v>
       </c>
@@ -3582,12 +3583,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3615,14 +3616,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
       <c r="R25" s="24" t="s">
         <v>36</v>
       </c>
@@ -3652,14 +3653,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="61"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
       <c r="R26" s="24" t="s">
         <v>41</v>
       </c>
@@ -3689,14 +3690,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="61"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
       <c r="R27" s="24" t="s">
         <v>35</v>
       </c>
@@ -3726,14 +3727,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
       <c r="R28" s="24" t="s">
         <v>34</v>
       </c>
@@ -3763,14 +3764,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="61"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="24" t="s">
         <v>32</v>
       </c>
@@ -3800,14 +3801,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
       <c r="R30" s="24" t="s">
         <v>33</v>
       </c>
@@ -3837,14 +3838,14 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="61"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
       <c r="R31" s="24" t="s">
         <v>43</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3936,7 +3937,7 @@
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
       <c r="E34" s="14"/>
       <c r="F34" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>53</v>
@@ -3972,7 +3973,7 @@
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
       <c r="E35" s="14"/>
       <c r="G35" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -4038,7 +4039,7 @@
         <v>54</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
@@ -4046,7 +4047,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
       <c r="N37" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
@@ -4110,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="53"/>
       <c r="J39" s="41"/>
@@ -4118,7 +4119,7 @@
       <c r="L39" s="16"/>
       <c r="M39" s="41"/>
       <c r="N39" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O39" s="41"/>
       <c r="P39" s="42"/>
@@ -4150,7 +4151,7 @@
       <c r="L40" s="46"/>
       <c r="M40" s="52"/>
       <c r="N40" s="54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O40" s="30"/>
       <c r="P40" s="27"/>
@@ -4178,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -4186,10 +4187,10 @@
       <c r="L41" s="16"/>
       <c r="M41" s="39"/>
       <c r="N41" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O41" s="48" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
@@ -4220,10 +4221,10 @@
       <c r="L42" s="51"/>
       <c r="M42" s="52"/>
       <c r="N42" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O42" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
@@ -4279,10 +4280,10 @@
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
       <c r="E44" s="14"/>
       <c r="F44" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -4316,7 +4317,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="31"/>
       <c r="G45" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -4350,7 +4351,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="31"/>
       <c r="G46" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4384,7 +4385,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4417,7 +4418,7 @@
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
       <c r="E48" s="14"/>
       <c r="G48" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4612,14 +4613,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L31:Q31"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4634,6 +4627,14 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD117AD9-4F9C-4B95-B485-D2ADAEF8F943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE28C28-DE52-468D-91D4-52B9C0E3916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>原則、文字コード変換処理は本システム内で行う。他システムは、メッセージやファイルを本システムに送る際に文字コード変換を行う必要はない。</t>
-  </si>
-  <si>
     <t>基本方針</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -250,22 +247,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字コード変換処理および特殊文字の変換は、ミドルウェア製品（例えばHULFT）の文字コード変換機能を使用して実現する。</t>
-    <rPh sb="27" eb="29">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -484,34 +465,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込む。</t>
-    <rPh sb="29" eb="30">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>禁止文字、他システム禁止文字の取り扱い</t>
     <rPh sb="10" eb="12">
       <t>キンシ</t>
@@ -660,6 +613,75 @@
   </si>
   <si>
     <t>エラーとして処理を中断する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムで扱うファイルやデータは、他システムから連携されるものも含め全てUTF-8で統一されているため、文字コード変換処理は行わない。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、特殊文字の変換はミドルウェア製品（例えばHULFT）のコード変換機能を使用して実現する。</t>
+    <rPh sb="3" eb="5">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込むこと。</t>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2565,6 +2587,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2601,44 +2659,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3224,43 +3246,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3269,43 +3291,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3314,44 +3336,44 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>9</v>
@@ -3374,22 +3396,23 @@
         <v>7.2.1.</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.1" customHeight="1">
+      <c r="D10" s="14"/>
       <c r="E10" s="17" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3401,7 +3424,7 @@
         <v>7.2.2.</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.1" customHeight="1"/>
@@ -3411,24 +3434,24 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
       <c r="F18" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="5:34" ht="14.1" customHeight="1"/>
     <row r="20" spans="5:34" ht="14.1" customHeight="1">
       <c r="F20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -3444,7 +3467,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
@@ -3465,23 +3488,23 @@
     </row>
     <row r="21" spans="5:34" ht="14.1" customHeight="1">
       <c r="F21" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="L21" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -3502,23 +3525,23 @@
     </row>
     <row r="22" spans="5:34" ht="14.1" customHeight="1">
       <c r="F22" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="L22" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
       <c r="R22" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3539,23 +3562,23 @@
     </row>
     <row r="23" spans="5:34" ht="14.1" customHeight="1">
       <c r="F23" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
+      <c r="L23" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -3576,19 +3599,19 @@
     </row>
     <row r="24" spans="5:34" ht="14.1" customHeight="1">
       <c r="F24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3610,22 +3633,22 @@
     <row r="25" spans="5:34" ht="14.1" customHeight="1">
       <c r="F25" s="28"/>
       <c r="G25" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="L25" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3647,22 +3670,22 @@
     <row r="26" spans="5:34" ht="14.1" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="L26" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3684,22 +3707,22 @@
     <row r="27" spans="5:34" ht="14.1" customHeight="1">
       <c r="F27" s="28"/>
       <c r="G27" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="L27" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -3721,22 +3744,22 @@
     <row r="28" spans="5:34" ht="14.1" customHeight="1">
       <c r="F28" s="28"/>
       <c r="G28" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="L28" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3758,22 +3781,22 @@
     <row r="29" spans="5:34" ht="14.1" customHeight="1">
       <c r="F29" s="28"/>
       <c r="G29" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="L29" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3795,22 +3818,22 @@
     <row r="30" spans="5:34" ht="14.1" customHeight="1">
       <c r="F30" s="28"/>
       <c r="G30" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="L30" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3832,22 +3855,22 @@
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
       <c r="F31" s="29"/>
       <c r="G31" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="77"/>
+      <c r="L31" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
@@ -3903,7 +3926,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -3937,10 +3960,10 @@
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
       <c r="E34" s="14"/>
       <c r="F34" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -3973,7 +3996,7 @@
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
       <c r="E35" s="14"/>
       <c r="G35" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -4036,10 +4059,10 @@
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
       <c r="G37" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
@@ -4047,7 +4070,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
       <c r="N37" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
@@ -4075,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="38"/>
@@ -4083,7 +4106,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="38"/>
       <c r="N38" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O38" s="38"/>
       <c r="P38" s="58"/>
@@ -4111,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I39" s="53"/>
       <c r="J39" s="41"/>
@@ -4119,7 +4142,7 @@
       <c r="L39" s="16"/>
       <c r="M39" s="41"/>
       <c r="N39" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O39" s="41"/>
       <c r="P39" s="42"/>
@@ -4151,7 +4174,7 @@
       <c r="L40" s="46"/>
       <c r="M40" s="52"/>
       <c r="N40" s="54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O40" s="30"/>
       <c r="P40" s="27"/>
@@ -4179,7 +4202,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
@@ -4187,10 +4210,10 @@
       <c r="L41" s="16"/>
       <c r="M41" s="39"/>
       <c r="N41" s="56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O41" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
@@ -4221,10 +4244,10 @@
       <c r="L42" s="51"/>
       <c r="M42" s="52"/>
       <c r="N42" s="57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O42" s="44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
@@ -4280,10 +4303,10 @@
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
       <c r="E44" s="14"/>
       <c r="F44" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -4317,7 +4340,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="31"/>
       <c r="G45" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -4351,7 +4374,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="31"/>
       <c r="G46" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4385,7 +4408,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4418,7 +4441,7 @@
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
       <c r="E48" s="14"/>
       <c r="G48" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4482,7 +4505,7 @@
         <v>7.2.3.</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="4:34" ht="14.1" customHeight="1"/>
@@ -4492,17 +4515,17 @@
         <v>7.2.3.1.</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="4:34" ht="14.1" customHeight="1">
       <c r="F53" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="4:34" ht="14.1" customHeight="1">
       <c r="F54" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -4511,7 +4534,7 @@
       <c r="K54" s="20"/>
       <c r="L54" s="21"/>
       <c r="M54" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
@@ -4520,7 +4543,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="21"/>
       <c r="T54" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
@@ -4539,7 +4562,7 @@
     </row>
     <row r="55" spans="4:34" ht="14.25" customHeight="1">
       <c r="F55" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -4548,7 +4571,7 @@
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
       <c r="M55" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
@@ -4557,7 +4580,7 @@
       <c r="R55" s="16"/>
       <c r="S55" s="16"/>
       <c r="T55" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
@@ -4576,7 +4599,7 @@
     </row>
     <row r="56" spans="4:34" ht="14.25" customHeight="1">
       <c r="F56" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
@@ -4585,7 +4608,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -4594,7 +4617,7 @@
       <c r="R56" s="22"/>
       <c r="S56" s="23"/>
       <c r="T56" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
@@ -4613,6 +4636,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L31:Q31"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4627,14 +4658,6 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE28C28-DE52-468D-91D4-52B9C0E3916F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E275BE-47B1-42D3-ABC4-0887FFDC5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$59</definedName>
     <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -682,6 +682,27 @@
     <rPh sb="50" eb="51">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ仕向け(HTTP/HTTPS)および非同期でブラウザと送受信するデータの</t>
+    <rPh sb="5" eb="7">
+      <t>シム</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字コード</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2409,7 +2430,7 @@
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2587,6 +2608,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2614,53 +2683,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3228,7 +3267,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3246,43 +3285,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="67"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3291,43 +3330,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3336,39 +3375,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="73"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3495,14 +3534,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="61"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="24" t="s">
         <v>15</v>
       </c>
@@ -3532,14 +3571,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="24" t="s">
         <v>30</v>
       </c>
@@ -3569,14 +3608,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
       <c r="R23" s="24" t="s">
         <v>22</v>
       </c>
@@ -3606,12 +3645,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3639,14 +3678,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
       <c r="R25" s="24" t="s">
         <v>35</v>
       </c>
@@ -3676,14 +3715,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="61"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
       <c r="R26" s="24" t="s">
         <v>39</v>
       </c>
@@ -3713,14 +3752,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="61"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
       <c r="R27" s="24" t="s">
         <v>34</v>
       </c>
@@ -3750,14 +3789,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
       <c r="R28" s="24" t="s">
         <v>33</v>
       </c>
@@ -3787,14 +3826,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="61"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
       <c r="R29" s="24" t="s">
         <v>31</v>
       </c>
@@ -3824,14 +3863,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
       <c r="R30" s="24" t="s">
         <v>32</v>
       </c>
@@ -3853,128 +3892,125 @@
       <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F31" s="29"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="39"/>
+    </row>
+    <row r="32" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F32" s="28"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="47"/>
+    </row>
+    <row r="33" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F33" s="29"/>
+      <c r="G33" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="59" t="s">
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="24" t="s">
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="23"/>
-    </row>
-    <row r="32" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-    </row>
-    <row r="33" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E33" s="14" t="str">
-        <f>$D$14&amp;"3."</f>
-        <v>7.2.2.3.</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E34" s="14"/>
-      <c r="F34" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
@@ -3994,10 +4030,14 @@
       <c r="AH34" s="18"/>
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E35" s="14"/>
-      <c r="G35" s="30" t="s">
-        <v>63</v>
-      </c>
+      <c r="E35" s="14" t="str">
+        <f>$D$14&amp;"3."</f>
+        <v>7.2.2.3.</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
@@ -4028,7 +4068,12 @@
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
       <c r="E36" s="14"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
@@ -4058,231 +4103,230 @@
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G37" s="19" t="s">
+      <c r="E37" s="14"/>
+      <c r="G37" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+    </row>
+    <row r="38" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E38" s="14"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+    </row>
+    <row r="39" spans="5:34" ht="14.1" customHeight="1">
+      <c r="G39" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H39" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="33" t="s">
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="35"/>
-    </row>
-    <row r="38" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G38" s="32">
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="35"/>
+    </row>
+    <row r="40" spans="5:34" ht="14.1" customHeight="1">
+      <c r="G40" s="32">
         <v>1</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H40" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="36" t="s">
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="23"/>
-    </row>
-    <row r="39" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G39" s="50">
-        <v>2</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="39"/>
-    </row>
-    <row r="40" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G40" s="55"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="O40" s="30"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="49"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="23"/>
     </row>
     <row r="41" spans="5:34" ht="14.1" customHeight="1">
       <c r="G41" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="49"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="39"/>
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G42" s="29"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="43"/>
-      <c r="I42" s="51"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="52"/>
-      <c r="N42" s="57" t="s">
+      <c r="N42" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="O42" s="30"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="49"/>
+    </row>
+    <row r="43" spans="5:34" ht="14.1" customHeight="1">
+      <c r="G43" s="50">
+        <v>3</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="O42" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="47"/>
-    </row>
-    <row r="43" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E43" s="14"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
+      <c r="O43" s="48" t="s">
+        <v>71</v>
+      </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
-      <c r="R43" s="18"/>
+      <c r="R43" s="27"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
@@ -4298,50 +4342,45 @@
       <c r="AE43" s="18"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
+      <c r="AH43" s="49"/>
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E44" s="14"/>
-      <c r="F44" s="31" t="s">
+      <c r="G44" s="29"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
+      <c r="O44" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="47"/>
     </row>
     <row r="45" spans="5:34" ht="14.1" customHeight="1">
       <c r="E45" s="14"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -4372,9 +4411,11 @@
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
       <c r="E46" s="14"/>
-      <c r="F46" s="31"/>
+      <c r="F46" s="31" t="s">
+        <v>57</v>
+      </c>
       <c r="G46" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4408,7 +4449,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4440,8 +4481,9 @@
     </row>
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
       <c r="E48" s="14"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4472,6 +4514,12 @@
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E49" s="14"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -4500,151 +4548,204 @@
       <c r="AH49" s="18"/>
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
-      <c r="D50" s="14" t="str">
+      <c r="E50" s="14"/>
+      <c r="G50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+    </row>
+    <row r="51" spans="4:34" ht="14.1" customHeight="1">
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+    </row>
+    <row r="52" spans="4:34" ht="14.1" customHeight="1">
+      <c r="D52" s="14" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.2.3.</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E52" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="52" spans="4:34" ht="14.1" customHeight="1">
-      <c r="E52" s="14" t="str">
-        <f>$D$50&amp;"1."</f>
+    <row r="53" spans="4:34" ht="14.1" customHeight="1"/>
+    <row r="54" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E54" s="14" t="str">
+        <f>$D$52&amp;"1."</f>
         <v>7.2.3.1.</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F54" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F53" s="17" t="s">
+    <row r="55" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F55" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F54" s="19" t="s">
+    <row r="56" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="20" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="26" t="s">
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="21"/>
-    </row>
-    <row r="55" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F55" s="15" t="s">
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="21"/>
+    </row>
+    <row r="57" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F57" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="15" t="s">
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="24" t="s">
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="23"/>
-    </row>
-    <row r="56" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F56" s="24" t="s">
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="23"/>
+    </row>
+    <row r="58" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F58" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="24" t="s">
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="24" t="s">
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="23"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
+      <c r="AG58" s="22"/>
+      <c r="AH58" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="L31:Q31"/>
+  <mergeCells count="23">
+    <mergeCell ref="L33:Q33"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -4658,17 +4759,26 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>使用可能文字コード一覧</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="34" man="1"/>
+    <brk id="34" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E275BE-47B1-42D3-ABC4-0887FFDC5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E406F688-684F-41A0-A284-350EB06A92D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,75 +616,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムで扱うファイルやデータは、他システムから連携されるものも含め全てUTF-8で統一されているため、文字コード変換処理は行わない。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>トウイツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また、特殊文字の変換はミドルウェア製品（例えばHULFT）のコード変換機能を使用して実現する。</t>
-    <rPh sb="3" eb="5">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なお、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込むこと。</t>
-    <rPh sb="29" eb="30">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JSON</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -703,6 +634,53 @@
   </si>
   <si>
     <t>文字コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原則、文字コード変換処理は本システム内で行う。他システムは、メッセージやファイルを本システムに送る際に文字コード変換を行う必要はない。</t>
+  </si>
+  <si>
+    <t>文字コード変換処理および特殊文字の変換は、ミドルウェア製品（例えばHULFT）の文字コード変換機能を使用して実現する。</t>
+    <rPh sb="27" eb="29">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込む。</t>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2608,6 +2586,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2644,62 +2676,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3285,30 +3263,30 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3318,10 +3296,10 @@
       <c r="AC1" s="72"/>
       <c r="AD1" s="72"/>
       <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="79"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3330,30 +3308,30 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="85"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3363,10 +3341,10 @@
       <c r="AC2" s="72"/>
       <c r="AD2" s="72"/>
       <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3375,26 +3353,26 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="88"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
@@ -3404,10 +3382,10 @@
       <c r="AC3" s="72"/>
       <c r="AD3" s="72"/>
       <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3441,17 +3419,17 @@
     <row r="10" spans="1:35" ht="14.1" customHeight="1">
       <c r="D10" s="14"/>
       <c r="E10" s="17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3534,14 +3512,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
+      <c r="L21" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="24" t="s">
         <v>15</v>
       </c>
@@ -3571,14 +3549,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="75" t="s">
+      <c r="L22" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="64"/>
       <c r="R22" s="24" t="s">
         <v>30</v>
       </c>
@@ -3608,14 +3586,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="75" t="s">
+      <c r="L23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="64"/>
       <c r="R23" s="24" t="s">
         <v>22</v>
       </c>
@@ -3645,12 +3623,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3678,14 +3656,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
+      <c r="L25" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="64"/>
       <c r="R25" s="24" t="s">
         <v>35</v>
       </c>
@@ -3715,14 +3693,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
+      <c r="L26" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="24" t="s">
         <v>39</v>
       </c>
@@ -3752,14 +3730,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
+      <c r="L27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="24" t="s">
         <v>34</v>
       </c>
@@ -3789,14 +3767,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
+      <c r="L28" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
       <c r="R28" s="24" t="s">
         <v>33</v>
       </c>
@@ -3826,14 +3804,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
+      <c r="L29" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
       <c r="R29" s="24" t="s">
         <v>31</v>
       </c>
@@ -3863,14 +3841,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="24" t="s">
         <v>32</v>
       </c>
@@ -3894,22 +3872,22 @@
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
       <c r="F31" s="28"/>
       <c r="G31" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="85" t="s">
+      <c r="L31" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="87"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
       <c r="R31" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -3930,19 +3908,19 @@
     </row>
     <row r="32" spans="5:34" ht="14.1" customHeight="1">
       <c r="F32" s="28"/>
-      <c r="G32" s="84"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
       <c r="J32" s="46"/>
       <c r="K32" s="47"/>
-      <c r="L32" s="88"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="84" t="s">
-        <v>77</v>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
@@ -3970,14 +3948,14 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="75" t="s">
+      <c r="L33" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="77"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="64"/>
       <c r="R33" s="24" t="s">
         <v>41</v>
       </c>
@@ -4745,6 +4723,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L33:Q33"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4760,14 +4746,6 @@
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E406F688-684F-41A0-A284-350EB06A92D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95804A0A-A7AE-4447-85AF-F68D3E2FD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$58</definedName>
     <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -316,19 +316,6 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システム１との連携</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2595,6 +2582,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2622,15 +2657,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2639,45 +2665,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3245,7 +3232,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3263,43 +3250,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="70"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3308,43 +3295,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="70"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3353,39 +3340,39 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="88"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
@@ -3419,17 +3406,17 @@
     <row r="10" spans="1:35" ht="14.1" customHeight="1">
       <c r="D10" s="14"/>
       <c r="E10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3451,13 +3438,13 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
@@ -3512,14 +3499,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="64"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="24" t="s">
         <v>15</v>
       </c>
@@ -3549,14 +3536,14 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="64"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="24" t="s">
         <v>30</v>
       </c>
@@ -3586,14 +3573,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="64"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="80"/>
       <c r="R23" s="24" t="s">
         <v>22</v>
       </c>
@@ -3623,12 +3610,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3656,14 +3643,14 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="64"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="24" t="s">
         <v>35</v>
       </c>
@@ -3693,14 +3680,14 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="64"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="80"/>
       <c r="R26" s="24" t="s">
         <v>39</v>
       </c>
@@ -3730,14 +3717,14 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="62" t="s">
+      <c r="L27" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="64"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="24" t="s">
         <v>34</v>
       </c>
@@ -3767,14 +3754,14 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="24" t="s">
         <v>33</v>
       </c>
@@ -3804,14 +3791,14 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="62" t="s">
+      <c r="L29" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="64"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="24" t="s">
         <v>31</v>
       </c>
@@ -3841,14 +3828,14 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="62" t="s">
+      <c r="L30" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="64"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="24" t="s">
         <v>32</v>
       </c>
@@ -3872,22 +3859,22 @@
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
       <c r="F31" s="28"/>
       <c r="G31" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="89"/>
       <c r="R31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -3920,7 +3907,7 @@
       <c r="P32" s="45"/>
       <c r="Q32" s="61"/>
       <c r="R32" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
@@ -3948,14 +3935,14 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="64"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
       <c r="R33" s="24" t="s">
         <v>41</v>
       </c>
@@ -4013,7 +4000,7 @@
         <v>7.2.2.3.</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -4047,10 +4034,10 @@
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
       <c r="E36" s="14"/>
       <c r="F36" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -4083,7 +4070,7 @@
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
       <c r="E37" s="14"/>
       <c r="G37" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -4146,10 +4133,10 @@
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
       <c r="G39" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
@@ -4157,7 +4144,7 @@
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
       <c r="N39" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O39" s="34"/>
       <c r="P39" s="34"/>
@@ -4193,7 +4180,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="38"/>
       <c r="N40" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O40" s="38"/>
       <c r="P40" s="58"/>
@@ -4221,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="53"/>
       <c r="J41" s="41"/>
@@ -4229,7 +4216,7 @@
       <c r="L41" s="16"/>
       <c r="M41" s="41"/>
       <c r="N41" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O41" s="41"/>
       <c r="P41" s="42"/>
@@ -4261,7 +4248,7 @@
       <c r="L42" s="46"/>
       <c r="M42" s="52"/>
       <c r="N42" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="27"/>
@@ -4289,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -4297,10 +4284,10 @@
       <c r="L43" s="16"/>
       <c r="M43" s="39"/>
       <c r="N43" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O43" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
@@ -4331,10 +4318,10 @@
       <c r="L44" s="51"/>
       <c r="M44" s="52"/>
       <c r="N44" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P44" s="45"/>
       <c r="Q44" s="45"/>
@@ -4390,10 +4377,10 @@
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
       <c r="E46" s="14"/>
       <c r="F46" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4427,7 +4414,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4461,7 +4448,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="31"/>
       <c r="G48" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4495,7 +4482,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="31"/>
       <c r="G49" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -4528,7 +4515,7 @@
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
       <c r="E50" s="14"/>
       <c r="G50" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -4612,7 +4599,7 @@
     </row>
     <row r="56" spans="4:34" ht="14.1" customHeight="1">
       <c r="F56" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -4621,7 +4608,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="21"/>
       <c r="M56" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -4630,7 +4617,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="21"/>
       <c r="T56" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
@@ -4648,26 +4635,26 @@
       <c r="AH56" s="21"/>
     </row>
     <row r="57" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="15" t="s">
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
@@ -4684,53 +4671,8 @@
       <c r="AG57" s="22"/>
       <c r="AH57" s="23"/>
     </row>
-    <row r="58" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F58" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L33:Q33"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4746,6 +4688,14 @@
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D5901-5E40-4950-8FEF-34AD7DAC5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95804A0A-A7AE-4447-85AF-F68D3E2FD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$58</definedName>
     <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -81,9 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>原則、文字コード変換処理は本システム内で行う。他システムは、メッセージやファイルを本システムに送る際に文字コード変換を行う必要はない。</t>
-  </si>
-  <si>
     <t>基本方針</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -250,6 +247,386 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>includeする静的コンテンツ</t>
+    <rPh sb="9" eb="11">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部インタフェース</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HULFTで連携するファイル</t>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字コード変換方式概要</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける文字コード変換方式は以下の通り。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先システム２との連携</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変換対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変換方式</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HULFTのコード変換機能を利用</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コード変換エラーログに出力して検知できるようにする。</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時の挙動</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊文字入力変換処理</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>入力画面にエラーを返す。</t>
+  </si>
+  <si>
+    <t>ファイル転送/外部媒体</t>
+  </si>
+  <si>
+    <t>特殊文字出力変換処理</t>
+  </si>
+  <si>
+    <t>接続先</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先システムに応じて、下記のいずれかを選択する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー通知や運用面も考慮して選択すること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム内で使用する文字種と文字コード</t>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、【使用可能文字種一覧】で定められた文字種のみを使用可能（使用許可文字種）とし、それ以外は禁止文字とする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="16">
+      <t>シヨウカノウモジシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>禁止文字、他システム禁止文字の取り扱い</t>
+    <rPh sb="10" eb="12">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラウザや他システムから禁止文字が入力された場合は、業務コンポーネントにて以下のようにエラー制御を行う。</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字と定義する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムの使用許可文字種に含まれる文字のうち、接続先システムがファイル転送およびメッセージ連携において許容しない文字を、</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シヨウキョカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代替文字の変換ルールは、接続先ごとに個別テーブルを用意して管理する。</t>
+    <rPh sb="0" eb="4">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとするが代替文字に変換し、処理を継続する。　</t>
+    <rPh sb="7" eb="9">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字は、代替文字（略字等）へ変換したうえで接続先システムに連携する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リャクジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとして処理を中断する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ仕向け(HTTP/HTTPS)および非同期でブラウザと送受信するデータの</t>
+    <rPh sb="5" eb="7">
+      <t>シム</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原則、文字コード変換処理は本システム内で行う。他システムは、メッセージやファイルを本システムに送る際に文字コード変換を行う必要はない。</t>
+  </si>
+  <si>
     <t>文字コード変換処理および特殊文字の変換は、ミドルウェア製品（例えばHULFT）の文字コード変換機能を使用して実現する。</t>
     <rPh sb="27" eb="29">
       <t>セイヒン</t>
@@ -266,227 +643,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>要件定義</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTML</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>includeする静的コンテンツ</t>
-    <rPh sb="9" eb="11">
-      <t>セイテキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部インタフェース</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HULFTで連携するファイル</t>
-    <rPh sb="6" eb="8">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字コード変換方式概要</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムにおける文字コード変換方式は以下の通り。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システム１との連携</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システム２との連携</t>
-    <rPh sb="0" eb="3">
-      <t>セツゾクサキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変換対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変換方式</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HULFTのコード変換機能を利用</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コード変換エラーログに出力して検知できるようにする。</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー時の挙動</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊文字入力変換処理</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>入力画面にエラーを返す。</t>
-  </si>
-  <si>
-    <t>エラーとして相手先に通知し、処理を中断する。</t>
-  </si>
-  <si>
-    <t>ファイル転送/外部媒体</t>
-  </si>
-  <si>
-    <t>特殊文字出力変換処理</t>
-  </si>
-  <si>
-    <t>接続先</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システムに応じて、下記のいずれかを選択する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー通知や運用面も考慮して選択すること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム内で使用する文字種と文字コード</t>
-    <rPh sb="10" eb="13">
-      <t>モジシュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、【使用可能文字種一覧】で定められた文字種のみを使用可能（使用許可文字種）とし、それ以外は禁止文字とする。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="16">
-      <t>シヨウカノウモジシュ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>サダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>また、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込む。</t>
     <rPh sb="29" eb="30">
       <t>ヨ</t>
@@ -511,153 +667,6 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>禁止文字、他システム禁止文字の取り扱い</t>
-    <rPh sb="10" eb="12">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブラウザや他システムから禁止文字が入力された場合は、業務コンポーネントにて以下のようにエラー制御を行う。</t>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>キンシモジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他システム</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー制御</t>
-    <rPh sb="3" eb="5">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他システム禁止文字と定義する。</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムの使用許可文字種に含まれる文字のうち、接続先システムがファイル転送およびメッセージ連携において許容しない文字を、</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>シヨウキョカ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>モジシュ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>セツゾクサキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キョヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>代替文字の変換ルールは、接続先ごとに個別テーブルを用意して管理する。</t>
-    <rPh sb="0" eb="4">
-      <t>ダイタイモジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーとするが代替文字に変換し、処理を継続する。　</t>
-    <rPh sb="7" eb="9">
-      <t>ダイタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他システム禁止文字は、代替文字（略字等）へ変換したうえで接続先システムに連携する。</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>キンシモジ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ダイタイモジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>リャクジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>セツゾクサキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>レンケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2386,7 +2395,7 @@
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2564,6 +2573,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2591,53 +2657,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3205,7 +3232,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3223,43 +3250,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="67"/>
+      <c r="R1" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3268,43 +3295,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="77" t="s">
+      <c r="R2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="79"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="70"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3313,44 +3340,44 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="73"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>9</v>
@@ -3373,22 +3400,23 @@
         <v>7.2.1.</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.1" customHeight="1">
+      <c r="D10" s="14"/>
       <c r="E10" s="17" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3400,7 +3428,7 @@
         <v>7.2.2.</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.1" customHeight="1"/>
@@ -3410,24 +3438,24 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="5:34" ht="14.1" customHeight="1">
       <c r="F18" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="5:34" ht="14.1" customHeight="1"/>
     <row r="20" spans="5:34" ht="14.1" customHeight="1">
       <c r="F20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -3443,7 +3471,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
@@ -3464,23 +3492,23 @@
     </row>
     <row r="21" spans="5:34" ht="14.1" customHeight="1">
       <c r="F21" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="61"/>
+      <c r="L21" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -3501,23 +3529,23 @@
     </row>
     <row r="22" spans="5:34" ht="14.1" customHeight="1">
       <c r="F22" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="61"/>
+      <c r="L22" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3538,23 +3566,23 @@
     </row>
     <row r="23" spans="5:34" ht="14.1" customHeight="1">
       <c r="F23" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
+      <c r="L23" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="80"/>
       <c r="R23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
@@ -3575,19 +3603,19 @@
     </row>
     <row r="24" spans="5:34" ht="14.1" customHeight="1">
       <c r="F24" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3609,22 +3637,22 @@
     <row r="25" spans="5:34" ht="14.1" customHeight="1">
       <c r="F25" s="28"/>
       <c r="G25" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="61"/>
+      <c r="L25" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3646,22 +3674,22 @@
     <row r="26" spans="5:34" ht="14.1" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="61"/>
+      <c r="L26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="80"/>
       <c r="R26" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3683,22 +3711,22 @@
     <row r="27" spans="5:34" ht="14.1" customHeight="1">
       <c r="F27" s="28"/>
       <c r="G27" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="61"/>
+      <c r="L27" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -3720,22 +3748,22 @@
     <row r="28" spans="5:34" ht="14.1" customHeight="1">
       <c r="F28" s="28"/>
       <c r="G28" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
+      <c r="L28" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3757,22 +3785,22 @@
     <row r="29" spans="5:34" ht="14.1" customHeight="1">
       <c r="F29" s="28"/>
       <c r="G29" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="61"/>
+      <c r="L29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3794,22 +3822,22 @@
     <row r="30" spans="5:34" ht="14.1" customHeight="1">
       <c r="F30" s="28"/>
       <c r="G30" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="61"/>
+      <c r="L30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3829,128 +3857,125 @@
       <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F31" s="29"/>
-      <c r="G31" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="23"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="39"/>
     </row>
     <row r="32" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="47"/>
     </row>
     <row r="33" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E33" s="14" t="str">
-        <f>$D$14&amp;"3."</f>
-        <v>7.2.2.3.</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E34" s="14"/>
-      <c r="F34" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
@@ -3970,10 +3995,14 @@
       <c r="AH34" s="18"/>
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E35" s="14"/>
-      <c r="G35" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="E35" s="14" t="str">
+        <f>$D$14&amp;"3."</f>
+        <v>7.2.2.3.</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
@@ -4004,7 +4033,12 @@
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
       <c r="E36" s="14"/>
-      <c r="G36" s="27"/>
+      <c r="F36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
@@ -4034,231 +4068,230 @@
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G37" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="35"/>
+      <c r="E37" s="14"/>
+      <c r="G37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G38" s="32">
+      <c r="E38" s="14"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+    </row>
+    <row r="39" spans="5:34" ht="14.1" customHeight="1">
+      <c r="G39" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="35"/>
+    </row>
+    <row r="40" spans="5:34" ht="14.1" customHeight="1">
+      <c r="G40" s="32">
         <v>1</v>
       </c>
-      <c r="H38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="23"/>
-    </row>
-    <row r="39" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G39" s="50">
-        <v>2</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="O39" s="41"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
-      <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="39"/>
-    </row>
-    <row r="40" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G40" s="55"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="O40" s="30"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="49"/>
+      <c r="H40" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="38"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="23"/>
     </row>
     <row r="41" spans="5:34" ht="14.1" customHeight="1">
       <c r="G41" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="O41" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="49"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="39"/>
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
-      <c r="G42" s="29"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="43"/>
-      <c r="I42" s="51"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="52"/>
-      <c r="N42" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="47"/>
+      <c r="N42" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" s="30"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="49"/>
     </row>
     <row r="43" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E43" s="14"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
+      <c r="G43" s="50">
+        <v>3</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="48" t="s">
+        <v>70</v>
+      </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
-      <c r="R43" s="18"/>
+      <c r="R43" s="27"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
@@ -4274,50 +4307,45 @@
       <c r="AE43" s="18"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
+      <c r="AH43" s="49"/>
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E44" s="14"/>
-      <c r="F44" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="47"/>
     </row>
     <row r="45" spans="5:34" ht="14.1" customHeight="1">
       <c r="E45" s="14"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="17" t="s">
-        <v>71</v>
-      </c>
+      <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="27"/>
@@ -4348,9 +4376,11 @@
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
       <c r="E46" s="14"/>
-      <c r="F46" s="31"/>
+      <c r="F46" s="31" t="s">
+        <v>56</v>
+      </c>
       <c r="G46" s="17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4384,7 +4414,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4416,8 +4446,9 @@
     </row>
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
       <c r="E48" s="14"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4448,6 +4479,12 @@
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E49" s="14"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -4476,151 +4513,167 @@
       <c r="AH49" s="18"/>
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
-      <c r="D50" s="14" t="str">
+      <c r="E50" s="14"/>
+      <c r="G50" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+    </row>
+    <row r="51" spans="4:34" ht="14.1" customHeight="1">
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+    </row>
+    <row r="52" spans="4:34" ht="14.1" customHeight="1">
+      <c r="D52" s="14" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.2.3.</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="52" spans="4:34" ht="14.1" customHeight="1">
-      <c r="E52" s="14" t="str">
-        <f>$D$50&amp;"1."</f>
+      <c r="E52" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="4:34" ht="14.1" customHeight="1"/>
+    <row r="54" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E54" s="14" t="str">
+        <f>$D$52&amp;"1."</f>
         <v>7.2.3.1.</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F54" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F55" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="21"/>
+    </row>
+    <row r="57" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F57" s="24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F53" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F54" s="19" t="s">
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="21"/>
-    </row>
-    <row r="55" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F55" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="23"/>
-    </row>
-    <row r="56" spans="4:34" ht="14.25" customHeight="1">
-      <c r="F56" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="23"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="L31:Q31"/>
+  <mergeCells count="23">
+    <mergeCell ref="L33:Q33"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -4634,17 +4687,26 @@
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>使用可能文字コード一覧</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="34" man="1"/>
+    <brk id="34" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95804A0A-A7AE-4447-85AF-F68D3E2FD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-105" windowWidth="16110" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.2.文字コード" sheetId="12" r:id="rId1"/>
@@ -12,15 +13,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7.2.文字コード'!#REF!</definedName>
     <definedName name="_Toc297797585" localSheetId="0">'7.2.文字コード'!$E$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$73</definedName>
-    <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.2.文字コード'!$A$1:$AI$58</definedName>
+    <definedName name="使用可能文字コード一覧">'7.2.文字コード'!$AM$7:$AM$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -69,9 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>原則、文字コード変換処理は本システム内で行う。他システムは、メッセージやファイルを本システムに送る際に文字コード変換を行う必要はない。</t>
-  </si>
-  <si>
     <t>基本方針</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -137,10 +146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム内で使用する文字コード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -242,6 +247,386 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>includeする静的コンテンツ</t>
+    <rPh sb="9" eb="11">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部インタフェース</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HULFTで連携するファイル</t>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字コード変換方式概要</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける文字コード変換方式は以下の通り。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先システム２との連携</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変換対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変換方式</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HULFTのコード変換機能を利用</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コード変換エラーログに出力して検知できるようにする。</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時の挙動</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊文字入力変換処理</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>入力画面にエラーを返す。</t>
+  </si>
+  <si>
+    <t>ファイル転送/外部媒体</t>
+  </si>
+  <si>
+    <t>特殊文字出力変換処理</t>
+  </si>
+  <si>
+    <t>接続先</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続先システムに応じて、下記のいずれかを選択する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー通知や運用面も考慮して選択すること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム内で使用する文字種と文字コード</t>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、【使用可能文字種一覧】で定められた文字種のみを使用可能（使用許可文字種）とし、それ以外は禁止文字とする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="16">
+      <t>シヨウカノウモジシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>禁止文字、他システム禁止文字の取り扱い</t>
+    <rPh sb="10" eb="12">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラウザや他システムから禁止文字が入力された場合は、業務コンポーネントにて以下のようにエラー制御を行う。</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字と定義する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムの使用許可文字種に含まれる文字のうち、接続先システムがファイル転送およびメッセージ連携において許容しない文字を、</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>シヨウキョカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代替文字の変換ルールは、接続先ごとに個別テーブルを用意して管理する。</t>
+    <rPh sb="0" eb="4">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとするが代替文字に変換し、処理を継続する。　</t>
+    <rPh sb="7" eb="9">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他システム禁止文字は、代替文字（略字等）へ変換したうえで接続先システムに連携する。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キンシモジ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ダイタイモジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リャクジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーとして処理を中断する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ仕向け(HTTP/HTTPS)および非同期でブラウザと送受信するデータの</t>
+    <rPh sb="5" eb="7">
+      <t>シム</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字コード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原則、文字コード変換処理は本システム内で行う。他システムは、メッセージやファイルを本システムに送る際に文字コード変換を行う必要はない。</t>
+  </si>
+  <si>
     <t>文字コード変換処理および特殊文字の変換は、ミドルウェア製品（例えばHULFT）の文字コード変換機能を使用して実現する。</t>
     <rPh sb="27" eb="29">
       <t>セイヒン</t>
@@ -258,292 +643,38 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、必要に応じてNablarchおよび共通コンポーネントの文字コード変換機能を使用する。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件定義</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTML</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>includeする静的コンテンツ</t>
-    <rPh sb="9" eb="11">
-      <t>セイテキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部インタフェース</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HULFTで連携するファイル</t>
-    <rPh sb="6" eb="8">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字コード変換方式概要</t>
-    <rPh sb="0" eb="2">
+    <t>また、Nablarchおよび共通コンポーネントでファイルを読み込む際は、必ず文字コードを指定して読み込む。</t>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
       <t>モジ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムにおける文字コード変換方式は以下の通り。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システム１との連携</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システム２との連携</t>
-    <rPh sb="0" eb="3">
-      <t>セツゾクサキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変換対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変換方式</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HULFTのコード変換機能を利用</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コード変換エラーログに出力して検知できるようにする。</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー時の挙動</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不要な文字化けを回避する為、外部システムからの入力禁則文字を定めエラーとして扱う。</t>
-  </si>
-  <si>
-    <t>具体的には、以下のケースで、文字化けが発生することが考えられる。</t>
-  </si>
-  <si>
-    <t>上記ケースの対象となる文字について、業務処理における影響度を調査のうえ、禁則文字を決定する。</t>
-  </si>
-  <si>
-    <t>特殊文字入力変換処理</t>
-  </si>
-  <si>
-    <t>本システムのブラウザより、許容されない文字が入力された場合、特定文字へ変換後エラーを返す。</t>
-  </si>
-  <si>
-    <t>非許容文字としては、前述の禁則文字に加え、選定外拡張文字を指す。</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>入力画面にエラーを返す。</t>
-  </si>
-  <si>
-    <t>周辺システム</t>
-  </si>
-  <si>
-    <t>エラーとして相手先に通知し、処理を中断する。</t>
-  </si>
-  <si>
-    <t>エラーとするが特定文字に変換し、処理を継続する。　</t>
-  </si>
-  <si>
-    <t>ファイル転送/外部媒体</t>
-  </si>
-  <si>
-    <t>特殊文字出力変換処理</t>
-  </si>
-  <si>
-    <t>接続先システムが、本システム選定の拡張文字を許容しない場合、代替文字（略字等）へ変換する。</t>
-  </si>
-  <si>
-    <t>接続先の変換パターンに応じた個別テーブルの用意を必要とする。</t>
-  </si>
-  <si>
-    <t>禁則文字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Java系の処理方式をとる場合、内部でUnicode変換が発生するので、コンバータが２箇所に跨るケースがある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・コンバータ（エンコーディング表）によりコードポイントが異なる文字を処理するケース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・本システムと、周辺システムで異なるコンバータを使用する可能性がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>禁則文字、他システム非許容拡張文字の取り扱い</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他システムとのファイル転送およびメッセージ連携での取引において、本システムで使用する文字集合と適用しないものについては、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊文字変換処理を実施する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブラウザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー時の振る舞い</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー時の振る舞いは、業務コンポーネントにて制御する。</t>
-    <rPh sb="11" eb="13">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続先システムに応じて、下記のいずれかを選択する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー通知や運用面も考慮して選択すること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2264,7 +2395,7 @@
     </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,396 +2486,414 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
-    <cellStyle name="_x000c_ーセン_x000c_" xfId="7"/>
-    <cellStyle name="??????" xfId="8"/>
-    <cellStyle name="??_???? ?? ??? (2)" xfId="9"/>
-    <cellStyle name="?E°CE，°e1yAI" xfId="10"/>
-    <cellStyle name="_ペンディング管理一..." xfId="11"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="12"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="25"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="26"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="27"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="28"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="29"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="30"/>
-    <cellStyle name="AeE- [0]_Co´e0124" xfId="31"/>
-    <cellStyle name="AeE-_Co´e0124" xfId="32"/>
-    <cellStyle name="args.style" xfId="33"/>
-    <cellStyle name="AT，¶ [0]_Co´e0124" xfId="34"/>
-    <cellStyle name="AT，¶_Co´e0124" xfId="35"/>
-    <cellStyle name="BD標準" xfId="36"/>
-    <cellStyle name="C\AO_Co´e0124" xfId="37"/>
-    <cellStyle name="Calc Currency (0)" xfId="38"/>
-    <cellStyle name="Calc Currency (0) 2" xfId="39"/>
-    <cellStyle name="Calc Currency (2)" xfId="40"/>
-    <cellStyle name="Calc Percent (0)" xfId="41"/>
-    <cellStyle name="Calc Percent (1)" xfId="42"/>
-    <cellStyle name="Calc Percent (2)" xfId="43"/>
-    <cellStyle name="Calc Units (0)" xfId="44"/>
-    <cellStyle name="Calc Units (1)" xfId="45"/>
-    <cellStyle name="Calc Units (2)" xfId="46"/>
-    <cellStyle name="category" xfId="47"/>
-    <cellStyle name="ColumnAttributeAbovePrompt" xfId="48"/>
-    <cellStyle name="ColumnAttributePrompt" xfId="49"/>
-    <cellStyle name="ColumnAttributeValue" xfId="50"/>
-    <cellStyle name="ColumnHeadingPrompt" xfId="51"/>
-    <cellStyle name="ColumnHeadingValue" xfId="52"/>
-    <cellStyle name="Comma [0]_!!!GO" xfId="53"/>
-    <cellStyle name="Comma [00]" xfId="54"/>
-    <cellStyle name="Comma_!!!GO" xfId="55"/>
-    <cellStyle name="Comma0" xfId="56"/>
-    <cellStyle name="COMP定番表書式" xfId="57"/>
-    <cellStyle name="Copied" xfId="58"/>
-    <cellStyle name="Currency [0]_!!!GO" xfId="59"/>
-    <cellStyle name="Currency [00]" xfId="60"/>
-    <cellStyle name="Currency_!!!GO" xfId="61"/>
-    <cellStyle name="Currency0" xfId="62"/>
-    <cellStyle name="Date Short" xfId="63"/>
-    <cellStyle name="Enter Currency (0)" xfId="64"/>
-    <cellStyle name="Enter Currency (2)" xfId="65"/>
-    <cellStyle name="Enter Units (0)" xfId="66"/>
-    <cellStyle name="Enter Units (1)" xfId="67"/>
-    <cellStyle name="Enter Units (2)" xfId="68"/>
-    <cellStyle name="Entered" xfId="69"/>
-    <cellStyle name="entry" xfId="70"/>
-    <cellStyle name="Followed Hyperlink" xfId="71"/>
-    <cellStyle name="Grey" xfId="72"/>
-    <cellStyle name="Grey 2" xfId="73"/>
-    <cellStyle name="HEADER" xfId="74"/>
-    <cellStyle name="Header 1" xfId="75"/>
-    <cellStyle name="Header 2" xfId="76"/>
-    <cellStyle name="Header Center" xfId="77"/>
-    <cellStyle name="Header1" xfId="78"/>
-    <cellStyle name="Header2" xfId="79"/>
-    <cellStyle name="Heading 1" xfId="80"/>
-    <cellStyle name="Heading 1 2" xfId="81"/>
-    <cellStyle name="Heading 2" xfId="82"/>
-    <cellStyle name="HEADINGS" xfId="83"/>
-    <cellStyle name="HEADINGSTOP" xfId="84"/>
-    <cellStyle name="HP Logo" xfId="85"/>
-    <cellStyle name="Hyperlink" xfId="86"/>
-    <cellStyle name="IBM(401K)" xfId="87"/>
-    <cellStyle name="Input [yellow]" xfId="88"/>
-    <cellStyle name="Input [yellow] 2" xfId="89"/>
-    <cellStyle name="J401K" xfId="90"/>
-    <cellStyle name="LineItemPrompt" xfId="91"/>
-    <cellStyle name="LineItemValue" xfId="92"/>
-    <cellStyle name="Link Currency (0)" xfId="93"/>
-    <cellStyle name="Link Currency (2)" xfId="94"/>
-    <cellStyle name="Link Units (0)" xfId="95"/>
-    <cellStyle name="Link Units (1)" xfId="96"/>
-    <cellStyle name="Link Units (2)" xfId="97"/>
-    <cellStyle name="Millares [0]_BRASIL (2)" xfId="98"/>
-    <cellStyle name="Millares_5670-t123" xfId="99"/>
-    <cellStyle name="Milliers [0]_!!!GO" xfId="100"/>
-    <cellStyle name="Milliers_!!!GO" xfId="101"/>
-    <cellStyle name="Model" xfId="102"/>
-    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="103"/>
-    <cellStyle name="Moneda_5670-t123" xfId="104"/>
-    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="105"/>
-    <cellStyle name="Mon騁aire_!!!GO" xfId="106"/>
-    <cellStyle name="Normal - Style1" xfId="107"/>
-    <cellStyle name="Normal - Style1 2" xfId="108"/>
-    <cellStyle name="Normal_!!!GO" xfId="109"/>
-    <cellStyle name="Normale_LSCO0697" xfId="110"/>
-    <cellStyle name="nozawa" xfId="111"/>
-    <cellStyle name="Oasis" xfId="112"/>
-    <cellStyle name="OUTPUT AMOUNTS" xfId="113"/>
-    <cellStyle name="OUTPUT COLUMN HEADINGS" xfId="114"/>
-    <cellStyle name="OUTPUT LINE ITEMS" xfId="115"/>
-    <cellStyle name="OUTPUT REPORT HEADING" xfId="116"/>
-    <cellStyle name="OUTPUT REPORT TITLE" xfId="117"/>
-    <cellStyle name="per.style" xfId="118"/>
-    <cellStyle name="Percent [0]" xfId="119"/>
-    <cellStyle name="Percent [00]" xfId="120"/>
-    <cellStyle name="Percent [2]" xfId="121"/>
-    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="122"/>
-    <cellStyle name="PrePop Currency (0)" xfId="123"/>
-    <cellStyle name="PrePop Currency (2)" xfId="124"/>
-    <cellStyle name="PrePop Units (0)" xfId="125"/>
-    <cellStyle name="PrePop Units (1)" xfId="126"/>
-    <cellStyle name="PrePop Units (2)" xfId="127"/>
-    <cellStyle name="price" xfId="128"/>
-    <cellStyle name="pricing" xfId="129"/>
-    <cellStyle name="PSChar" xfId="130"/>
-    <cellStyle name="PSHeading" xfId="131"/>
-    <cellStyle name="regstoresfromspecstores" xfId="132"/>
-    <cellStyle name="ReportTitlePrompt" xfId="133"/>
-    <cellStyle name="ReportTitleValue" xfId="134"/>
-    <cellStyle name="revised" xfId="135"/>
-    <cellStyle name="RevList" xfId="136"/>
-    <cellStyle name="RowAcctAbovePrompt" xfId="137"/>
-    <cellStyle name="RowAcctSOBAbovePrompt" xfId="138"/>
-    <cellStyle name="RowAcctSOBValue" xfId="139"/>
-    <cellStyle name="RowAcctValue" xfId="140"/>
-    <cellStyle name="RowAttrAbovePrompt" xfId="141"/>
-    <cellStyle name="RowAttrValue" xfId="142"/>
-    <cellStyle name="RowColSetAbovePrompt" xfId="143"/>
-    <cellStyle name="RowColSetLeftPrompt" xfId="144"/>
-    <cellStyle name="RowColSetValue" xfId="145"/>
-    <cellStyle name="RowLeftPrompt" xfId="146"/>
-    <cellStyle name="SampleUsingFormatMask" xfId="147"/>
-    <cellStyle name="SampleWithNoFormatMask" xfId="148"/>
-    <cellStyle name="section" xfId="149"/>
-    <cellStyle name="SHADEDSTORES" xfId="150"/>
-    <cellStyle name="specstores" xfId="151"/>
-    <cellStyle name="subhead" xfId="152"/>
-    <cellStyle name="Subtotal" xfId="153"/>
-    <cellStyle name="Table Entry" xfId="154"/>
-    <cellStyle name="Table Heading" xfId="155"/>
-    <cellStyle name="Table Heading Center" xfId="156"/>
-    <cellStyle name="Table Medium" xfId="157"/>
-    <cellStyle name="Table Normal" xfId="158"/>
-    <cellStyle name="Table Small" xfId="159"/>
-    <cellStyle name="Table Small Bold" xfId="160"/>
-    <cellStyle name="Table Small Center" xfId="161"/>
-    <cellStyle name="Table Title" xfId="162"/>
-    <cellStyle name="Text Indent A" xfId="163"/>
-    <cellStyle name="Text Indent B" xfId="164"/>
-    <cellStyle name="Text Indent C" xfId="165"/>
-    <cellStyle name="title" xfId="166"/>
-    <cellStyle name="Total" xfId="167"/>
-    <cellStyle name="UploadThisRowValue" xfId="168"/>
-    <cellStyle name="あああ" xfId="169"/>
-    <cellStyle name="アクセント 1 2" xfId="170"/>
-    <cellStyle name="アクセント 2 2" xfId="171"/>
-    <cellStyle name="アクセント 3 2" xfId="172"/>
-    <cellStyle name="アクセント 4 2" xfId="173"/>
-    <cellStyle name="アクセント 5 2" xfId="174"/>
-    <cellStyle name="アクセント 6 2" xfId="175"/>
-    <cellStyle name="スタイル 1" xfId="176"/>
-    <cellStyle name="センター" xfId="177"/>
-    <cellStyle name="タイトル 2" xfId="178"/>
-    <cellStyle name="チェック セル 2" xfId="179"/>
-    <cellStyle name="どちらでもない 2" xfId="180"/>
-    <cellStyle name="パーセント 2" xfId="181"/>
-    <cellStyle name="ハイパーリンク 2" xfId="182"/>
-    <cellStyle name="メモ 2" xfId="183"/>
-    <cellStyle name="リンク セル 2" xfId="184"/>
-    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="185"/>
-    <cellStyle name="悪い 2" xfId="186"/>
-    <cellStyle name="開発計画書スタイル" xfId="187"/>
-    <cellStyle name="計算 2" xfId="188"/>
-    <cellStyle name="警告文 2" xfId="189"/>
-    <cellStyle name="桁蟻唇Ｆ [0.00]_DATA" xfId="190"/>
-    <cellStyle name="桁蟻唇Ｆ_DATA" xfId="191"/>
-    <cellStyle name="桁区切? [0.00]" xfId="192"/>
-    <cellStyle name="桁区切り 2" xfId="193"/>
-    <cellStyle name="見出し 1 2" xfId="194"/>
-    <cellStyle name="見出し 2 2" xfId="195"/>
-    <cellStyle name="見出し 3 2" xfId="196"/>
-    <cellStyle name="見出し 4 2" xfId="197"/>
-    <cellStyle name="集計 2" xfId="198"/>
-    <cellStyle name="出力 2" xfId="199"/>
-    <cellStyle name="常规_GATE_共通DB(マスタ)_20070212" xfId="200"/>
-    <cellStyle name="人月" xfId="201"/>
-    <cellStyle name="説明文 2" xfId="202"/>
-    <cellStyle name="脱浦 [0.00]_~0007176" xfId="203"/>
-    <cellStyle name="脱浦_~0007176" xfId="204"/>
-    <cellStyle name="通貨 2" xfId="205"/>
-    <cellStyle name="入力 2" xfId="206"/>
-    <cellStyle name="破線" xfId="207"/>
-    <cellStyle name="標?_Pacific Region P&amp;L" xfId="208"/>
+    <cellStyle name="_x000c_ーセン_x000c_" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="??????" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="??_???? ?? ??? (2)" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="?E°CE，°e1yAI" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_ペンディング管理一..." xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="AeE- [0]_Co´e0124" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="AeE-_Co´e0124" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="args.style" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="AT，¶ [0]_Co´e0124" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="AT，¶_Co´e0124" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="BD標準" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="C\AO_Co´e0124" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Calc Currency (0) 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="category" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="ColumnAttributeAbovePrompt" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="ColumnAttributePrompt" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="ColumnAttributeValue" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="ColumnHeadingPrompt" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="ColumnHeadingValue" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma [0]_!!!GO" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma [00]" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma_!!!GO" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma0" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="COMP定番表書式" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Copied" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Currency [0]_!!!GO" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Currency [00]" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Currency_!!!GO" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Currency0" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Date Short" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Entered" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="entry" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Grey" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Grey 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="HEADER" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header 1" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header Center" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header1" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Heading 1" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Heading 1 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Heading 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="HEADINGS" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="HEADINGSTOP" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="HP Logo" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Hyperlink" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="IBM(401K)" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Input [yellow]" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Input [yellow] 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="J401K" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="LineItemPrompt" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="LineItemValue" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Link Units (0)" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Link Units (1)" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Link Units (2)" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Millares [0]_BRASIL (2)" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Millares_5670-t123" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Milliers [0]_!!!GO" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Milliers_!!!GO" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Model" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Moneda_5670-t123" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Mon騁aire_!!!GO" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal - Style1" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal_!!!GO" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normale_LSCO0697" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="nozawa" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Oasis" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="OUTPUT AMOUNTS" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="OUTPUT COLUMN HEADINGS" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="OUTPUT LINE ITEMS" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="OUTPUT REPORT HEADING" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="OUTPUT REPORT TITLE" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="per.style" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Percent [0]" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Percent [00]" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Percent [2]" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="price" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="pricing" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="PSChar" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="PSHeading" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="regstoresfromspecstores" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="ReportTitlePrompt" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="ReportTitleValue" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="revised" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="RevList" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="RowAcctAbovePrompt" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="RowAcctSOBAbovePrompt" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="RowAcctSOBValue" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="RowAcctValue" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="RowAttrAbovePrompt" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="RowAttrValue" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="RowColSetAbovePrompt" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="RowColSetLeftPrompt" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="RowColSetValue" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="RowLeftPrompt" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="SampleUsingFormatMask" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="SampleWithNoFormatMask" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="section" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="SHADEDSTORES" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="specstores" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="subhead" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Subtotal" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Table Entry" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Table Heading" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Table Heading Center" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Table Medium" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Table Normal" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Table Small" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Table Small Bold" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Table Small Center" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Table Title" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Text Indent A" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Text Indent B" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Text Indent C" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="title" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Total" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="UploadThisRowValue" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="あああ" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="スタイル 1" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="センター" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="タイトル 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="チェック セル 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="パーセント 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="メモ 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="リンク セル 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="・'_x000c_・・・V_x0001_ｳ_x0018_ﾘ0_x0007__x0001__x0001_" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="悪い 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="開発計画書スタイル" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="計算 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="警告文 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="桁蟻唇Ｆ [0.00]_DATA" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="桁蟻唇Ｆ_DATA" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="桁区切? [0.00]" xfId="192" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="桁区切り 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="見出し 1 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="見出し 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="見出し 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="見出し 4 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="集計 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="出力 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="常规_GATE_共通DB(マスタ)_20070212" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="人月" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="説明文 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="脱浦 [0.00]_~0007176" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="脱浦_~0007176" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="通貨 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="入力 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="破線" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="標?_Pacific Region P&amp;L" xfId="208" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="209"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準 3 2" xfId="210"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準 4" xfId="211"/>
-    <cellStyle name="標準 5" xfId="212"/>
-    <cellStyle name="標準 5 2" xfId="213"/>
-    <cellStyle name="標準 6" xfId="6"/>
-    <cellStyle name="標準 7" xfId="214"/>
-    <cellStyle name="標準 8" xfId="5"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
-    <cellStyle name="標準１" xfId="215"/>
-    <cellStyle name="標準TY" xfId="216"/>
-    <cellStyle name="表旨巧・・ハイパーリンク" xfId="217"/>
-    <cellStyle name="表題" xfId="218"/>
-    <cellStyle name="磨葬e義" xfId="219"/>
-    <cellStyle name="未定義" xfId="220"/>
-    <cellStyle name="良い 2" xfId="221"/>
-    <cellStyle name="爲敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="222"/>
-    <cellStyle name="捬䌠牵敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="223"/>
-    <cellStyle name="爱敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="224"/>
-    <cellStyle name="㠱䤭瑮牥敮⡴⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="225"/>
+    <cellStyle name="標準 2" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="標準 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="標準 4" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="標準 5" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="標準 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="標準 6" xfId="6" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="標準 7" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="標準 8" xfId="5" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="標準１" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="標準TY" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="表旨巧・・ハイパーリンク" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="表題" xfId="218" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="磨葬e義" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="未定義" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="良い 2" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="爲敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="222" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="捬䌠牵敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="爱敲据⁹〨崩⡜⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="㠱䤭瑮牥敮⡴⑜Ⱓ⌣⸰〰⥜ ‪ⴢ㼢弿㬠 彀㼠 弻䀠 †††††††††††††††††††††††††㠠᠇鰁묂堀뀽w" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2752,12 +2901,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2799,7 +2951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2832,9 +2984,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,6 +3036,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3042,11 +3228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3064,43 +3250,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3109,43 +3295,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="70"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="64"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3154,44 +3340,44 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="64"/>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>9</v>
@@ -3214,22 +3400,23 @@
         <v>7.2.1.</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="14.1" customHeight="1">
+      <c r="D10" s="14"/>
       <c r="E10" s="17" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="E11" s="17" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="E12" s="17" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="14.1" customHeight="1">
@@ -3241,7 +3428,7 @@
         <v>7.2.2.</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.1" customHeight="1"/>
@@ -3251,108 +3438,77 @@
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="5:34" ht="14.1" customHeight="1"/>
-    <row r="19" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="5:34" ht="14.1" customHeight="1"/>
+    <row r="20" spans="5:34" ht="14.1" customHeight="1">
+      <c r="F20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
-    </row>
-    <row r="20" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="24" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="23"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21" spans="5:34" ht="14.1" customHeight="1">
       <c r="F21" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
+      <c r="L21" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
       <c r="R21" s="24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -3372,24 +3528,24 @@
       <c r="AH21" s="23"/>
     </row>
     <row r="22" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
+      <c r="F22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="80"/>
       <c r="R22" s="24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3409,21 +3565,25 @@
       <c r="AH22" s="23"/>
     </row>
     <row r="23" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F23" s="15" t="s">
-        <v>25</v>
+      <c r="F23" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="22"/>
+      <c r="L23" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
@@ -3442,25 +3602,21 @@
       <c r="AH23" s="23"/>
     </row>
     <row r="24" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F24" s="28"/>
-      <c r="G24" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
@@ -3481,22 +3637,22 @@
     <row r="25" spans="5:34" ht="14.1" customHeight="1">
       <c r="F25" s="28"/>
       <c r="G25" s="22" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
+      <c r="L25" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
       <c r="R25" s="24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3518,22 +3674,22 @@
     <row r="26" spans="5:34" ht="14.1" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
+      <c r="L26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="80"/>
       <c r="R26" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3555,22 +3711,22 @@
     <row r="27" spans="5:34" ht="14.1" customHeight="1">
       <c r="F27" s="28"/>
       <c r="G27" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
+      <c r="L27" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -3592,20 +3748,20 @@
     <row r="28" spans="5:34" ht="14.1" customHeight="1">
       <c r="F28" s="28"/>
       <c r="G28" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="77"/>
+      <c r="L28" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
       <c r="R28" s="24" t="s">
         <v>33</v>
       </c>
@@ -3629,22 +3785,22 @@
     <row r="29" spans="5:34" ht="14.1" customHeight="1">
       <c r="F29" s="28"/>
       <c r="G29" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="L29" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
       <c r="R29" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3664,24 +3820,24 @@
       <c r="AH29" s="23"/>
     </row>
     <row r="30" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F30" s="29"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="22" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="77"/>
+      <c r="L30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="24" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3701,121 +3857,125 @@
       <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="39"/>
     </row>
     <row r="32" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E32" s="14" t="str">
-        <f>$D$14&amp;"2."</f>
-        <v>7.2.2.2.</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="47"/>
     </row>
     <row r="33" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F33" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
     </row>
     <row r="34" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F34" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
@@ -3835,7 +3995,13 @@
       <c r="AH34" s="18"/>
     </row>
     <row r="35" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F35" s="27"/>
+      <c r="E35" s="14" t="str">
+        <f>$D$14&amp;"3."</f>
+        <v>7.2.2.3.</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -3866,10 +4032,13 @@
       <c r="AH35" s="18"/>
     </row>
     <row r="36" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="27"/>
+      <c r="G36" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
@@ -3899,10 +4068,10 @@
       <c r="AH36" s="18"/>
     </row>
     <row r="37" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F37" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="27"/>
+      <c r="E37" s="14"/>
+      <c r="G37" s="30" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
@@ -3932,9 +4101,7 @@
       <c r="AH37" s="18"/>
     </row>
     <row r="38" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F38" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="E38" s="14"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -3965,120 +4132,128 @@
       <c r="AH38" s="18"/>
     </row>
     <row r="39" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
+      <c r="G39" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="35"/>
     </row>
     <row r="40" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F40" s="17" t="s">
+      <c r="G40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="38"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="23"/>
+    </row>
+    <row r="41" spans="5:34" ht="14.1" customHeight="1">
+      <c r="G41" s="50">
+        <v>2</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-    </row>
-    <row r="41" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="39"/>
     </row>
     <row r="42" spans="5:34" ht="14.1" customHeight="1">
-      <c r="E42" s="14" t="str">
-        <f>$D$14&amp;"3."</f>
-        <v>7.2.2.3.</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" s="30"/>
       <c r="P42" s="27"/>
       <c r="Q42" s="27"/>
-      <c r="R42" s="18"/>
+      <c r="R42" s="27"/>
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
@@ -4094,24 +4269,29 @@
       <c r="AE42" s="18"/>
       <c r="AF42" s="18"/>
       <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
+      <c r="AH42" s="49"/>
     </row>
     <row r="43" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F43" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
+      <c r="G43" s="50">
+        <v>3</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="48" t="s">
+        <v>70</v>
+      </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
-      <c r="R43" s="18"/>
+      <c r="R43" s="27"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
@@ -4127,42 +4307,44 @@
       <c r="AE43" s="18"/>
       <c r="AF43" s="18"/>
       <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
+      <c r="AH43" s="49"/>
     </row>
     <row r="44" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F44" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="18"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="47"/>
     </row>
     <row r="45" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E45" s="14"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -4193,11 +4375,12 @@
       <c r="AH45" s="18"/>
     </row>
     <row r="46" spans="5:34" ht="14.1" customHeight="1">
-      <c r="F46" s="32" t="s">
-        <v>79</v>
+      <c r="E46" s="14"/>
+      <c r="F46" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4228,8 +4411,10 @@
       <c r="AH46" s="18"/>
     </row>
     <row r="47" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E47" s="14"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4260,8 +4445,10 @@
       <c r="AH47" s="18"/>
     </row>
     <row r="48" spans="5:34" ht="14.1" customHeight="1">
+      <c r="E48" s="14"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4292,8 +4479,10 @@
       <c r="AH48" s="18"/>
     </row>
     <row r="49" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E49" s="14"/>
+      <c r="F49" s="31"/>
       <c r="G49" s="17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -4324,7 +4513,10 @@
       <c r="AH49" s="18"/>
     </row>
     <row r="50" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G50" s="27"/>
+      <c r="E50" s="14"/>
+      <c r="G50" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
@@ -4354,523 +4546,148 @@
       <c r="AH50" s="18"/>
     </row>
     <row r="51" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G51" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="36"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
     </row>
     <row r="52" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G52" s="33">
-        <v>1</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="23"/>
-    </row>
-    <row r="53" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G53" s="51">
-        <v>2</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I53" s="54"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="O53" s="42"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="16"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="16"/>
-      <c r="AE53" s="16"/>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="40"/>
-    </row>
-    <row r="54" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G54" s="56"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="18"/>
-      <c r="AH54" s="50"/>
-    </row>
-    <row r="55" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G55" s="51">
-        <v>3</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="O55" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
-      <c r="AH55" s="50"/>
-    </row>
-    <row r="56" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G56" s="29"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="O56" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="48"/>
-    </row>
-    <row r="57" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
-    </row>
-    <row r="58" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F58" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
-    </row>
-    <row r="59" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G59" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
-    </row>
-    <row r="60" spans="4:34" ht="14.1" customHeight="1">
-      <c r="G60" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
-    </row>
-    <row r="61" spans="4:34" ht="14.1" customHeight="1">
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
-    </row>
-    <row r="62" spans="4:34" ht="14.1" customHeight="1">
-      <c r="D62" s="14" t="str">
+      <c r="D52" s="14" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.2.3.</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="64" spans="4:34" ht="14.1" customHeight="1">
-      <c r="E64" s="14" t="str">
-        <f>$D$62&amp;"1."</f>
+      <c r="E52" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="4:34" ht="14.1" customHeight="1"/>
+    <row r="54" spans="4:34" ht="14.1" customHeight="1">
+      <c r="E54" s="14" t="str">
+        <f>$D$52&amp;"1."</f>
         <v>7.2.3.1.</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F54" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F55" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="4:34" ht="14.1" customHeight="1">
+      <c r="F56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="6:34" ht="14.1" customHeight="1">
-      <c r="F65" s="17" t="s">
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="21"/>
+    </row>
+    <row r="57" spans="4:34" ht="14.25" customHeight="1">
+      <c r="F57" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="6:34" ht="14.1" customHeight="1">
-      <c r="F66" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20"/>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="21"/>
-    </row>
-    <row r="67" spans="6:34" ht="14.25" customHeight="1">
-      <c r="F67" s="15" t="s">
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="23"/>
-    </row>
-    <row r="68" spans="6:34" ht="14.25" customHeight="1">
-      <c r="F68" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="23"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L25:Q25"/>
+  <mergeCells count="23">
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L25:Q25"/>
     <mergeCell ref="L27:Q27"/>
     <mergeCell ref="L28:Q28"/>
     <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L30:Q30"/>
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L31:Q31"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="E2:O2"/>
     <mergeCell ref="R2:X3"/>
@@ -4882,15 +4699,14 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20:L30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21:L33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>使用可能文字コード一覧</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="31" max="34" man="1"/>
-    <brk id="61" max="34" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="34" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.2.文字コード.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95804A0A-A7AE-4447-85AF-F68D3E2FD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3574ED4C-B540-4133-BAE6-D604F7EDA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.2.文字コード" sheetId="12" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JSP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JavaScript</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -218,19 +214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面表示JSPファイルの文字コード</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>使用する文字コードは以下の通り。</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -667,6 +650,23 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jakarta Server Pages</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示Jakarta Server Pagesファイルの文字コード</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2582,6 +2582,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2618,53 +2663,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="226">
@@ -3236,11 +3236,11 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="3.625" style="17"/>
-    <col min="6" max="6" width="3.625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="3.625" style="17"/>
+    <col min="1" max="5" width="3.6328125" style="17"/>
+    <col min="6" max="6" width="3.6328125" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="3.6328125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
@@ -3250,43 +3250,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="86"/>
+      <c r="R1" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="70"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="64"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="79"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -3295,43 +3295,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="70"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="85"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3340,42 +3340,42 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="73"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="88"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
-    </row>
-    <row r="4" spans="1:35" ht="14.1" customHeight="1"/>
-    <row r="5" spans="1:35" ht="14.1" customHeight="1">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
+    </row>
+    <row r="4" spans="1:35" ht="14.15" customHeight="1"/>
+    <row r="5" spans="1:35" ht="14.15" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
@@ -3383,8 +3383,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="14.1" customHeight="1"/>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1">
+    <row r="6" spans="1:35" ht="14.15" customHeight="1"/>
+    <row r="7" spans="1:35" ht="14.15" customHeight="1">
       <c r="C7" s="14" t="str">
         <f>$B$5&amp;"2."</f>
         <v>7.2.</v>
@@ -3393,8 +3393,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1"/>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1">
+    <row r="8" spans="1:35" ht="14.15" customHeight="1"/>
+    <row r="9" spans="1:35" ht="14.15" customHeight="1">
       <c r="D9" s="14" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.2.1.</v>
@@ -3403,26 +3403,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1">
+    <row r="10" spans="1:35" ht="14.15" customHeight="1">
       <c r="D10" s="14"/>
       <c r="E10" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="14.15" customHeight="1">
+      <c r="E11" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="14.15" customHeight="1">
+      <c r="E12" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1">
-      <c r="E11" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1">
-      <c r="E12" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1">
+    <row r="13" spans="1:35" ht="14.15" customHeight="1">
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:35" ht="14.1" customHeight="1">
+    <row r="14" spans="1:35" ht="14.15" customHeight="1">
       <c r="D14" s="14" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.2.2.</v>
@@ -3431,29 +3431,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1"/>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1">
+    <row r="15" spans="1:35" ht="14.15" customHeight="1"/>
+    <row r="16" spans="1:35" ht="14.15" customHeight="1">
       <c r="E16" s="14" t="str">
         <f>$D$14&amp;"1."</f>
         <v>7.2.2.1.</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="5:34" ht="14.1" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="5:34" ht="14.15" customHeight="1">
       <c r="E17" s="14"/>
       <c r="F17" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="5:34" ht="14.1" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="5:34" ht="14.15" customHeight="1">
       <c r="F18" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="5:34" ht="14.1" customHeight="1"/>
-    <row r="20" spans="5:34" ht="14.1" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="5:34" ht="14.15" customHeight="1"/>
+    <row r="20" spans="5:34" ht="14.15" customHeight="1">
       <c r="F20" s="19" t="s">
         <v>17</v>
       </c>
@@ -3490,7 +3490,7 @@
       <c r="AG20" s="20"/>
       <c r="AH20" s="21"/>
     </row>
-    <row r="21" spans="5:34" ht="14.1" customHeight="1">
+    <row r="21" spans="5:34" ht="14.15" customHeight="1">
       <c r="F21" s="15" t="s">
         <v>19</v>
       </c>
@@ -3499,14 +3499,14 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="78" t="s">
+      <c r="L21" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="80"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="64"/>
       <c r="R21" s="24" t="s">
         <v>15</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="AG21" s="22"/>
       <c r="AH21" s="23"/>
     </row>
-    <row r="22" spans="5:34" ht="14.1" customHeight="1">
+    <row r="22" spans="5:34" ht="14.15" customHeight="1">
       <c r="F22" s="15" t="s">
         <v>20</v>
       </c>
@@ -3536,16 +3536,16 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="78" t="s">
+      <c r="L22" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="80"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="64"/>
       <c r="R22" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
@@ -3564,7 +3564,7 @@
       <c r="AG22" s="22"/>
       <c r="AH22" s="23"/>
     </row>
-    <row r="23" spans="5:34" ht="14.1" customHeight="1">
+    <row r="23" spans="5:34" ht="14.15" customHeight="1">
       <c r="F23" s="24" t="s">
         <v>21</v>
       </c>
@@ -3573,14 +3573,14 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="80"/>
+      <c r="L23" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="64"/>
       <c r="R23" s="24" t="s">
         <v>22</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="AG23" s="22"/>
       <c r="AH23" s="23"/>
     </row>
-    <row r="24" spans="5:34" ht="14.1" customHeight="1">
+    <row r="24" spans="5:34" ht="14.15" customHeight="1">
       <c r="F24" s="15" t="s">
         <v>23</v>
       </c>
@@ -3610,12 +3610,12 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -3634,25 +3634,25 @@
       <c r="AG24" s="22"/>
       <c r="AH24" s="23"/>
     </row>
-    <row r="25" spans="5:34" ht="14.1" customHeight="1">
+    <row r="25" spans="5:34" ht="14.15" customHeight="1">
       <c r="F25" s="28"/>
       <c r="G25" s="22" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
+      <c r="L25" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="64"/>
       <c r="R25" s="24" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
@@ -3671,25 +3671,25 @@
       <c r="AG25" s="22"/>
       <c r="AH25" s="23"/>
     </row>
-    <row r="26" spans="5:34" ht="14.1" customHeight="1">
+    <row r="26" spans="5:34" ht="14.15" customHeight="1">
       <c r="F26" s="28"/>
       <c r="G26" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="80"/>
+      <c r="L26" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="64"/>
       <c r="R26" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
@@ -3708,25 +3708,25 @@
       <c r="AG26" s="22"/>
       <c r="AH26" s="23"/>
     </row>
-    <row r="27" spans="5:34" ht="14.1" customHeight="1">
+    <row r="27" spans="5:34" ht="14.15" customHeight="1">
       <c r="F27" s="28"/>
       <c r="G27" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="80"/>
+      <c r="L27" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="64"/>
       <c r="R27" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -3745,25 +3745,25 @@
       <c r="AG27" s="22"/>
       <c r="AH27" s="23"/>
     </row>
-    <row r="28" spans="5:34" ht="14.1" customHeight="1">
+    <row r="28" spans="5:34" ht="14.15" customHeight="1">
       <c r="F28" s="28"/>
       <c r="G28" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="80"/>
+      <c r="L28" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
       <c r="R28" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -3782,25 +3782,25 @@
       <c r="AG28" s="22"/>
       <c r="AH28" s="23"/>
     </row>
-    <row r="29" spans="5:34" ht="14.1" customHeight="1">
+    <row r="29" spans="5:34" ht="14.15" customHeight="1">
       <c r="F29" s="28"/>
       <c r="G29" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="80"/>
+      <c r="L29" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
       <c r="R29" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -3819,25 +3819,25 @@
       <c r="AG29" s="22"/>
       <c r="AH29" s="23"/>
     </row>
-    <row r="30" spans="5:34" ht="14.1" customHeight="1">
+    <row r="30" spans="5:34" ht="14.15" customHeight="1">
       <c r="F30" s="28"/>
       <c r="G30" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="80"/>
+      <c r="L30" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="64"/>
       <c r="R30" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -3856,25 +3856,25 @@
       <c r="AG30" s="22"/>
       <c r="AH30" s="23"/>
     </row>
-    <row r="31" spans="5:34" ht="14.1" customHeight="1">
+    <row r="31" spans="5:34" ht="14.15" customHeight="1">
       <c r="F31" s="28"/>
       <c r="G31" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="39"/>
-      <c r="L31" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="89"/>
+      <c r="L31" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
       <c r="R31" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -3893,7 +3893,7 @@
       <c r="AG31" s="16"/>
       <c r="AH31" s="39"/>
     </row>
-    <row r="32" spans="5:34" ht="14.1" customHeight="1">
+    <row r="32" spans="5:34" ht="14.15" customHeight="1">
       <c r="F32" s="28"/>
       <c r="G32" s="59"/>
       <c r="H32" s="46"/>
@@ -3907,7 +3907,7 @@
       <c r="P32" s="45"/>
       <c r="Q32" s="61"/>
       <c r="R32" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
@@ -3926,25 +3926,25 @@
       <c r="AG32" s="46"/>
       <c r="AH32" s="47"/>
     </row>
-    <row r="33" spans="5:34" ht="14.1" customHeight="1">
+    <row r="33" spans="5:34" ht="14.15" customHeight="1">
       <c r="F33" s="29"/>
       <c r="G33" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="80"/>
+      <c r="L33" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="64"/>
       <c r="R33" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
@@ -3963,7 +3963,7 @@
       <c r="AG33" s="22"/>
       <c r="AH33" s="23"/>
     </row>
-    <row r="34" spans="5:34" ht="14.1" customHeight="1">
+    <row r="34" spans="5:34" ht="14.15" customHeight="1">
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -3994,13 +3994,13 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
     </row>
-    <row r="35" spans="5:34" ht="14.1" customHeight="1">
+    <row r="35" spans="5:34" ht="14.15" customHeight="1">
       <c r="E35" s="14" t="str">
         <f>$D$14&amp;"3."</f>
         <v>7.2.2.3.</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -4031,13 +4031,13 @@
       <c r="AG35" s="18"/>
       <c r="AH35" s="18"/>
     </row>
-    <row r="36" spans="5:34" ht="14.1" customHeight="1">
+    <row r="36" spans="5:34" ht="14.15" customHeight="1">
       <c r="E36" s="14"/>
       <c r="F36" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -4067,10 +4067,10 @@
       <c r="AG36" s="18"/>
       <c r="AH36" s="18"/>
     </row>
-    <row r="37" spans="5:34" ht="14.1" customHeight="1">
+    <row r="37" spans="5:34" ht="14.15" customHeight="1">
       <c r="E37" s="14"/>
       <c r="G37" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -4100,7 +4100,7 @@
       <c r="AG37" s="18"/>
       <c r="AH37" s="18"/>
     </row>
-    <row r="38" spans="5:34" ht="14.1" customHeight="1">
+    <row r="38" spans="5:34" ht="14.15" customHeight="1">
       <c r="E38" s="14"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -4131,12 +4131,12 @@
       <c r="AG38" s="18"/>
       <c r="AH38" s="18"/>
     </row>
-    <row r="39" spans="5:34" ht="14.1" customHeight="1">
+    <row r="39" spans="5:34" ht="14.15" customHeight="1">
       <c r="G39" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
@@ -4144,7 +4144,7 @@
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
       <c r="N39" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O39" s="34"/>
       <c r="P39" s="34"/>
@@ -4167,7 +4167,7 @@
       <c r="AG39" s="34"/>
       <c r="AH39" s="35"/>
     </row>
-    <row r="40" spans="5:34" ht="14.1" customHeight="1">
+    <row r="40" spans="5:34" ht="14.15" customHeight="1">
       <c r="G40" s="32">
         <v>1</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="38"/>
       <c r="N40" s="36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O40" s="38"/>
       <c r="P40" s="58"/>
@@ -4203,12 +4203,12 @@
       <c r="AG40" s="22"/>
       <c r="AH40" s="23"/>
     </row>
-    <row r="41" spans="5:34" ht="14.1" customHeight="1">
+    <row r="41" spans="5:34" ht="14.15" customHeight="1">
       <c r="G41" s="50">
         <v>2</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I41" s="53"/>
       <c r="J41" s="41"/>
@@ -4216,7 +4216,7 @@
       <c r="L41" s="16"/>
       <c r="M41" s="41"/>
       <c r="N41" s="40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O41" s="41"/>
       <c r="P41" s="42"/>
@@ -4239,7 +4239,7 @@
       <c r="AG41" s="16"/>
       <c r="AH41" s="39"/>
     </row>
-    <row r="42" spans="5:34" ht="14.1" customHeight="1">
+    <row r="42" spans="5:34" ht="14.15" customHeight="1">
       <c r="G42" s="55"/>
       <c r="H42" s="43"/>
       <c r="I42" s="44"/>
@@ -4248,7 +4248,7 @@
       <c r="L42" s="46"/>
       <c r="M42" s="52"/>
       <c r="N42" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="27"/>
@@ -4271,12 +4271,12 @@
       <c r="AG42" s="18"/>
       <c r="AH42" s="49"/>
     </row>
-    <row r="43" spans="5:34" ht="14.1" customHeight="1">
+    <row r="43" spans="5:34" ht="14.15" customHeight="1">
       <c r="G43" s="50">
         <v>3</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
@@ -4284,10 +4284,10 @@
       <c r="L43" s="16"/>
       <c r="M43" s="39"/>
       <c r="N43" s="56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O43" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
@@ -4309,7 +4309,7 @@
       <c r="AG43" s="18"/>
       <c r="AH43" s="49"/>
     </row>
-    <row r="44" spans="5:34" ht="14.1" customHeight="1">
+    <row r="44" spans="5:34" ht="14.15" customHeight="1">
       <c r="G44" s="29"/>
       <c r="H44" s="43"/>
       <c r="I44" s="51"/>
@@ -4318,10 +4318,10 @@
       <c r="L44" s="51"/>
       <c r="M44" s="52"/>
       <c r="N44" s="57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O44" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P44" s="45"/>
       <c r="Q44" s="45"/>
@@ -4343,7 +4343,7 @@
       <c r="AG44" s="46"/>
       <c r="AH44" s="47"/>
     </row>
-    <row r="45" spans="5:34" ht="14.1" customHeight="1">
+    <row r="45" spans="5:34" ht="14.15" customHeight="1">
       <c r="E45" s="14"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -4374,13 +4374,13 @@
       <c r="AG45" s="18"/>
       <c r="AH45" s="18"/>
     </row>
-    <row r="46" spans="5:34" ht="14.1" customHeight="1">
+    <row r="46" spans="5:34" ht="14.15" customHeight="1">
       <c r="E46" s="14"/>
       <c r="F46" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -4410,11 +4410,11 @@
       <c r="AG46" s="18"/>
       <c r="AH46" s="18"/>
     </row>
-    <row r="47" spans="5:34" ht="14.1" customHeight="1">
+    <row r="47" spans="5:34" ht="14.15" customHeight="1">
       <c r="E47" s="14"/>
       <c r="F47" s="31"/>
       <c r="G47" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -4444,11 +4444,11 @@
       <c r="AG47" s="18"/>
       <c r="AH47" s="18"/>
     </row>
-    <row r="48" spans="5:34" ht="14.1" customHeight="1">
+    <row r="48" spans="5:34" ht="14.15" customHeight="1">
       <c r="E48" s="14"/>
       <c r="F48" s="31"/>
       <c r="G48" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -4478,11 +4478,11 @@
       <c r="AG48" s="18"/>
       <c r="AH48" s="18"/>
     </row>
-    <row r="49" spans="4:34" ht="14.1" customHeight="1">
+    <row r="49" spans="4:34" ht="14.15" customHeight="1">
       <c r="E49" s="14"/>
       <c r="F49" s="31"/>
       <c r="G49" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -4512,10 +4512,10 @@
       <c r="AG49" s="18"/>
       <c r="AH49" s="18"/>
     </row>
-    <row r="50" spans="4:34" ht="14.1" customHeight="1">
+    <row r="50" spans="4:34" ht="14.15" customHeight="1">
       <c r="E50" s="14"/>
       <c r="G50" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -4545,7 +4545,7 @@
       <c r="AG50" s="18"/>
       <c r="AH50" s="18"/>
     </row>
-    <row r="51" spans="4:34" ht="14.1" customHeight="1">
+    <row r="51" spans="4:34" ht="14.15" customHeight="1">
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
@@ -4573,7 +4573,7 @@
       <c r="AG51" s="18"/>
       <c r="AH51" s="18"/>
     </row>
-    <row r="52" spans="4:34" ht="14.1" customHeight="1">
+    <row r="52" spans="4:34" ht="14.15" customHeight="1">
       <c r="D52" s="14" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.2.3.</v>
@@ -4582,24 +4582,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:34" ht="14.1" customHeight="1"/>
-    <row r="54" spans="4:34" ht="14.1" customHeight="1">
+    <row r="53" spans="4:34" ht="14.15" customHeight="1"/>
+    <row r="54" spans="4:34" ht="14.15" customHeight="1">
       <c r="E54" s="14" t="str">
         <f>$D$52&amp;"1."</f>
         <v>7.2.3.1.</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="4:34" ht="14.1" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="4:34" ht="14.15" customHeight="1">
       <c r="F55" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="4:34" ht="14.15" customHeight="1">
+      <c r="F56" s="19" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="4:34" ht="14.1" customHeight="1">
-      <c r="F56" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -4608,7 +4608,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="21"/>
       <c r="M56" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -4617,7 +4617,7 @@
       <c r="R56" s="20"/>
       <c r="S56" s="21"/>
       <c r="T56" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="57" spans="4:34" ht="14.25" customHeight="1">
       <c r="F57" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
@@ -4645,7 +4645,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -4654,7 +4654,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
       <c r="T57" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
@@ -4673,6 +4673,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="L33:Q33"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="E1:O1"/>
@@ -4688,14 +4696,6 @@
     <mergeCell ref="L23:Q23"/>
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
